--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Along\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C751C43-36D0-4792-804A-B038328C44CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008C492A-F286-46B7-904F-BE824C5BE2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>BLK</t>
   </si>
   <si>
-    <t>RM</t>
-  </si>
-  <si>
     <t>S-COIN</t>
   </si>
   <si>
@@ -1802,6 +1799,9 @@
   </si>
   <si>
     <t>700W</t>
+  </si>
+  <si>
+    <t>SPECS</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1812,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="167" formatCode="[$RM-4409]#,##0.00"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1896,6 +1896,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1995,7 +2002,7 @@
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2106,6 +2113,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2599,8 +2609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="F176" sqref="F176"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2631,28 +2641,28 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="25" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="25" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D2" s="5">
         <v>349</v>
@@ -2661,28 +2671,28 @@
         <v>279</v>
       </c>
       <c r="F2" s="33" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G2" s="6">
         <f t="shared" ref="G2:G65" si="0">E2*100</f>
         <v>27900</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>12</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="D3" s="11">
         <v>27.9</v>
@@ -2696,21 +2706,21 @@
         <v>2790</v>
       </c>
       <c r="H3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="27" t="s">
         <v>17</v>
-      </c>
-      <c r="I3" s="27" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>19</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>20</v>
       </c>
       <c r="D4" s="11">
         <v>27.9</v>
@@ -2724,21 +2734,21 @@
         <v>2790</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="D5" s="11">
         <v>87.7</v>
@@ -2752,21 +2762,21 @@
         <v>6900</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>26</v>
       </c>
       <c r="D6" s="11">
         <v>32.9</v>
@@ -2780,21 +2790,21 @@
         <v>2300</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>30</v>
       </c>
       <c r="D7" s="11">
         <v>99</v>
@@ -2808,21 +2818,21 @@
         <v>9700</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D8" s="5">
         <v>369</v>
@@ -2836,21 +2846,21 @@
         <v>36900</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I8" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5">
         <v>369</v>
@@ -2864,21 +2874,21 @@
         <v>36900</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="D10" s="5">
         <v>289</v>
@@ -2892,21 +2902,21 @@
         <v>28900</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I10" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>41</v>
       </c>
       <c r="D11" s="5">
         <v>149</v>
@@ -2920,21 +2930,21 @@
         <v>14500</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I11" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>44</v>
       </c>
       <c r="D12" s="5">
         <v>169</v>
@@ -2948,21 +2958,21 @@
         <v>16900</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>46</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="D13" s="5">
         <v>169</v>
@@ -2976,21 +2986,21 @@
         <v>16900</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>50</v>
       </c>
       <c r="D14" s="5">
         <v>349</v>
@@ -3004,21 +3014,21 @@
         <v>34900</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>52</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>53</v>
       </c>
       <c r="D15" s="5">
         <v>349</v>
@@ -3032,21 +3042,21 @@
         <v>34900</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>55</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>56</v>
       </c>
       <c r="D16" s="5">
         <v>559</v>
@@ -3060,21 +3070,21 @@
         <v>55900</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75">
       <c r="A17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>58</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="D17" s="5">
         <v>559</v>
@@ -3088,21 +3098,21 @@
         <v>55900</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I17" s="27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75">
       <c r="A18" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="15" t="s">
         <v>61</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>62</v>
       </c>
       <c r="D18" s="5">
         <v>499</v>
@@ -3116,21 +3126,21 @@
         <v>49900</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75">
       <c r="A19" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="5">
         <v>499</v>
@@ -3144,21 +3154,21 @@
         <v>49900</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75">
       <c r="A20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>66</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>67</v>
       </c>
       <c r="D20" s="5">
         <v>799</v>
@@ -3172,21 +3182,21 @@
         <v>79900</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I20" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75">
       <c r="A21" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="5">
         <v>799</v>
@@ -3200,21 +3210,21 @@
         <v>79900</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I21" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75">
       <c r="A22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="D22" s="5">
         <v>179</v>
@@ -3228,21 +3238,21 @@
         <v>16900</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I22" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75">
       <c r="A23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="D23" s="5">
         <v>59</v>
@@ -3256,21 +3266,21 @@
         <v>4900</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75">
       <c r="A24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D24" s="5">
         <v>59</v>
@@ -3284,21 +3294,21 @@
         <v>4900</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75">
       <c r="A25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D25" s="5">
         <v>49</v>
@@ -3312,21 +3322,21 @@
         <v>3900</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75">
       <c r="A26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D26" s="5">
         <v>69</v>
@@ -3340,21 +3350,21 @@
         <v>5500</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75">
       <c r="A27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>87</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="D27" s="5">
         <v>89</v>
@@ -3368,21 +3378,21 @@
         <v>6900</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I27" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75">
       <c r="A28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="D28" s="5">
         <v>99</v>
@@ -3396,21 +3406,21 @@
         <v>7900</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I28" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75">
       <c r="A29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>92</v>
       </c>
       <c r="D29" s="11">
         <v>79</v>
@@ -3424,21 +3434,21 @@
         <v>5500</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I29" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75">
       <c r="A30" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>95</v>
       </c>
       <c r="D30" s="11">
         <v>55</v>
@@ -3452,21 +3462,21 @@
         <v>4900</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I30" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75">
       <c r="A31" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="D31" s="11">
         <v>129</v>
@@ -3480,21 +3490,21 @@
         <v>12500</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75">
       <c r="A32" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>101</v>
       </c>
       <c r="D32" s="5">
         <v>99</v>
@@ -3508,21 +3518,21 @@
         <v>9300</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I32" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75">
       <c r="A33" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>105</v>
       </c>
       <c r="D33" s="5">
         <v>16.899999999999999</v>
@@ -3536,21 +3546,21 @@
         <v>1690</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I33" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75">
       <c r="A34" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C34" s="15" t="s">
         <v>107</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>108</v>
       </c>
       <c r="D34" s="5">
         <v>14.4</v>
@@ -3564,21 +3574,21 @@
         <v>1440</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I34" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75">
       <c r="A35" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="15" t="s">
         <v>110</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>111</v>
       </c>
       <c r="D35" s="5">
         <v>15.5</v>
@@ -3592,21 +3602,21 @@
         <v>1550</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I35" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75">
       <c r="A36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>115</v>
       </c>
       <c r="D36" s="5">
         <v>714</v>
@@ -3620,21 +3630,21 @@
         <v>47900</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I36" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75">
       <c r="A37" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="C37" s="15" t="s">
         <v>118</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>119</v>
       </c>
       <c r="D37" s="5">
         <v>9.9</v>
@@ -3648,21 +3658,21 @@
         <v>990</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I37" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75">
       <c r="A38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="D38" s="5">
         <v>549</v>
@@ -3676,21 +3686,21 @@
         <v>19900</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I38" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75">
       <c r="A39" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>126</v>
       </c>
       <c r="D39" s="5">
         <v>599</v>
@@ -3699,28 +3709,28 @@
         <v>319</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G39" s="6">
         <f t="shared" si="0"/>
         <v>31900</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I39" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75">
       <c r="A40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D40" s="5">
         <v>599</v>
@@ -3729,28 +3739,28 @@
         <v>319</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G40" s="6">
         <f t="shared" si="0"/>
         <v>31900</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I40" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="15.75">
       <c r="A41" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="D41" s="5">
         <v>439</v>
@@ -3759,28 +3769,28 @@
         <v>179</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G41" s="6">
         <f t="shared" si="0"/>
         <v>17900</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I41" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="15.75">
       <c r="A42" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="D42" s="5">
         <v>519</v>
@@ -3789,28 +3799,28 @@
         <v>189</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G42" s="6">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I42" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="15.75">
       <c r="A43" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>137</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>138</v>
       </c>
       <c r="D43" s="5">
         <v>579</v>
@@ -3819,28 +3829,28 @@
         <v>219</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G43" s="6">
         <f t="shared" si="0"/>
         <v>21900</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I43" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="15.75">
       <c r="A44" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="D44" s="5">
         <v>349</v>
@@ -3849,28 +3859,28 @@
         <v>149</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G44" s="6">
         <f t="shared" si="0"/>
         <v>14900</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I44" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="15.75">
       <c r="A45" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="15" t="s">
         <v>143</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>144</v>
       </c>
       <c r="D45" s="5">
         <v>499</v>
@@ -3879,28 +3889,28 @@
         <v>199</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G45" s="6">
         <f t="shared" si="0"/>
         <v>19900</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I45" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="15.75">
       <c r="A46" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="D46" s="11">
         <v>499</v>
@@ -3909,28 +3919,28 @@
         <v>199</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G46" s="6">
         <f t="shared" si="0"/>
         <v>19900</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I46" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="15.75">
       <c r="A47" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="20" t="s">
         <v>149</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>150</v>
       </c>
       <c r="D47" s="11">
         <v>399</v>
@@ -3939,28 +3949,28 @@
         <v>199</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G47" s="6">
         <f t="shared" si="0"/>
         <v>19900</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I47" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="15.75">
       <c r="A48" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="15" t="s">
         <v>152</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>153</v>
       </c>
       <c r="D48" s="5">
         <v>459</v>
@@ -3969,28 +3979,28 @@
         <v>169</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G48" s="6">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I48" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15.75">
       <c r="A49" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="15" t="s">
         <v>155</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>156</v>
       </c>
       <c r="D49" s="5">
         <v>459</v>
@@ -3999,28 +4009,28 @@
         <v>169</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G49" s="6">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I49" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="15.75">
       <c r="A50" s="8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D50" s="11">
         <v>439</v>
@@ -4029,28 +4039,28 @@
         <v>169</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I50" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="15.75">
       <c r="A51" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="20" t="s">
         <v>160</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>161</v>
       </c>
       <c r="D51" s="11">
         <v>479</v>
@@ -4059,28 +4069,28 @@
         <v>189</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G51" s="6">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I51" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="15.75">
       <c r="A52" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D52" s="5">
         <v>519</v>
@@ -4089,28 +4099,28 @@
         <v>189</v>
       </c>
       <c r="F52" s="33" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G52" s="6">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I52" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="15.75">
       <c r="A53" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="20" t="s">
         <v>164</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>165</v>
       </c>
       <c r="D53" s="11">
         <v>599</v>
@@ -4119,28 +4129,28 @@
         <v>189</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I53" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="15.75">
       <c r="A54" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="15" t="s">
         <v>167</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>168</v>
       </c>
       <c r="D54" s="5">
         <v>639</v>
@@ -4149,28 +4159,28 @@
         <v>239</v>
       </c>
       <c r="F54" s="33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G54" s="6">
         <f t="shared" si="0"/>
         <v>23900</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I54" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.75">
       <c r="A55" s="16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="5">
         <v>639</v>
@@ -4179,28 +4189,28 @@
         <v>239</v>
       </c>
       <c r="F55" s="33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G55" s="6">
         <f t="shared" si="0"/>
         <v>23900</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I55" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="15.75">
       <c r="A56" s="16" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="5">
         <v>639</v>
@@ -4209,28 +4219,28 @@
         <v>239</v>
       </c>
       <c r="F56" s="33" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G56" s="6">
         <f t="shared" si="0"/>
         <v>23900</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I56" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="15.75">
       <c r="A57" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="20" t="s">
         <v>174</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>175</v>
       </c>
       <c r="D57" s="11">
         <v>669</v>
@@ -4239,28 +4249,28 @@
         <v>259</v>
       </c>
       <c r="F57" s="33" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G57" s="6">
         <f t="shared" si="0"/>
         <v>25900</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I57" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="15.75">
       <c r="A58" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="15" t="s">
         <v>177</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>178</v>
       </c>
       <c r="D58" s="5">
         <v>369</v>
@@ -4269,28 +4279,28 @@
         <v>149</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="0"/>
         <v>14900</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I58" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="15.75">
       <c r="A59" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="15" t="s">
         <v>180</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>181</v>
       </c>
       <c r="D59" s="5">
         <v>439</v>
@@ -4299,28 +4309,28 @@
         <v>169</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I59" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="15.75">
       <c r="A60" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="15" t="s">
         <v>182</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>183</v>
       </c>
       <c r="D60" s="5">
         <v>489</v>
@@ -4329,28 +4339,28 @@
         <v>189</v>
       </c>
       <c r="F60" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G60" s="6">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I60" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="15.75">
       <c r="A61" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="15" t="s">
         <v>184</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>185</v>
       </c>
       <c r="D61" s="5">
         <v>409</v>
@@ -4359,28 +4369,28 @@
         <v>159</v>
       </c>
       <c r="F61" s="33" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G61" s="6">
         <f t="shared" si="0"/>
         <v>15900</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I61" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="15.75">
       <c r="A62" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="23" t="s">
         <v>187</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C62" s="23" t="s">
-        <v>188</v>
       </c>
       <c r="D62" s="24">
         <v>499</v>
@@ -4389,28 +4399,28 @@
         <v>189</v>
       </c>
       <c r="F62" s="34" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G62" s="6">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I62" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="15.75">
       <c r="A63" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>190</v>
       </c>
       <c r="D63" s="11">
         <v>699</v>
@@ -4424,21 +4434,21 @@
         <v>31900</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I63" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="15.75">
       <c r="A64" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="10" t="s">
         <v>192</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>193</v>
       </c>
       <c r="D64" s="11">
         <v>949</v>
@@ -4452,21 +4462,21 @@
         <v>49900</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I64" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="15.75">
       <c r="A65" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="C65" s="15" t="s">
         <v>196</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>197</v>
       </c>
       <c r="D65" s="5">
         <v>18.5</v>
@@ -4475,28 +4485,28 @@
         <v>18.5</v>
       </c>
       <c r="F65" s="33" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="0"/>
         <v>1850</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I65" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:9" ht="15.75">
       <c r="A66" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="C66" s="4" t="s">
         <v>200</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>201</v>
       </c>
       <c r="D66" s="5">
         <v>319</v>
@@ -4509,21 +4519,21 @@
         <v>27900</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I66" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:9" ht="15.75">
       <c r="A67" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="C67" s="15" t="s">
         <v>204</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>205</v>
       </c>
       <c r="D67" s="5">
         <v>39</v>
@@ -4532,28 +4542,28 @@
         <v>39</v>
       </c>
       <c r="F67" s="33" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" si="1"/>
         <v>3900</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I67" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="15.75">
       <c r="A68" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>208</v>
       </c>
       <c r="D68" s="5">
         <v>49</v>
@@ -4562,28 +4572,28 @@
         <v>49</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" si="1"/>
         <v>4900</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I68" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:9" ht="15.75">
       <c r="A69" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" s="15" t="s">
         <v>210</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>211</v>
       </c>
       <c r="D69" s="5">
         <v>29</v>
@@ -4597,21 +4607,21 @@
         <v>2900</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I69" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:9" ht="15.75">
       <c r="A70" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C70" s="10" t="s">
         <v>213</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>214</v>
       </c>
       <c r="D70" s="11">
         <v>24.9</v>
@@ -4620,28 +4630,28 @@
         <v>24.9</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G70" s="6">
         <f t="shared" si="1"/>
         <v>2490</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I70" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:9" ht="15.75">
       <c r="A71" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>217</v>
       </c>
       <c r="D71" s="11">
         <v>20.9</v>
@@ -4650,28 +4660,28 @@
         <v>20.9</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G71" s="6">
         <f t="shared" si="1"/>
         <v>2090</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I71" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="15.75">
       <c r="A72" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>221</v>
       </c>
       <c r="D72" s="5">
         <v>210</v>
@@ -4680,28 +4690,28 @@
         <v>115</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G72" s="6">
         <f t="shared" si="1"/>
         <v>11500</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I72" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="73" spans="1:9" ht="15.75">
       <c r="A73" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="D73" s="5">
         <v>228</v>
@@ -4710,28 +4720,28 @@
         <v>200</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G73" s="6">
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I73" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="15.75">
       <c r="A74" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="15" t="s">
         <v>226</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>227</v>
       </c>
       <c r="D74" s="5">
         <v>162</v>
@@ -4745,21 +4755,21 @@
         <v>11500</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I74" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="15.75">
       <c r="A75" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="C75" s="15" t="s">
         <v>230</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>231</v>
       </c>
       <c r="D75" s="5">
         <v>11.9</v>
@@ -4768,28 +4778,28 @@
         <v>11.9</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G75" s="6">
         <f t="shared" si="1"/>
         <v>1190</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I75" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="15.75">
       <c r="A76" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B76" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="C76" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>235</v>
       </c>
       <c r="D76" s="5">
         <v>129</v>
@@ -4798,28 +4808,28 @@
         <v>129</v>
       </c>
       <c r="F76" s="33" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G76" s="6">
         <f t="shared" si="1"/>
         <v>12900</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I76" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="15.75">
       <c r="A77" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>238</v>
       </c>
       <c r="D77" s="5">
         <v>99</v>
@@ -4833,21 +4843,21 @@
         <v>9900</v>
       </c>
       <c r="H77" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I77" s="26" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="15.75">
       <c r="A78" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="15" t="s">
         <v>241</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>242</v>
       </c>
       <c r="D78" s="11">
         <v>89</v>
@@ -4861,21 +4871,21 @@
         <v>8900</v>
       </c>
       <c r="H78" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I78" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="15.75">
       <c r="A79" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C79" s="15" t="s">
         <v>244</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>245</v>
       </c>
       <c r="D79" s="11">
         <v>89</v>
@@ -4889,21 +4899,21 @@
         <v>8900</v>
       </c>
       <c r="H79" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I79" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="15.75">
       <c r="A80" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C80" s="15" t="s">
         <v>247</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>248</v>
       </c>
       <c r="D80" s="11">
         <v>89</v>
@@ -4917,21 +4927,21 @@
         <v>8900</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I80" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="15.75">
       <c r="A81" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C81" s="15" t="s">
         <v>249</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>250</v>
       </c>
       <c r="D81" s="11">
         <v>89</v>
@@ -4945,21 +4955,21 @@
         <v>8900</v>
       </c>
       <c r="H81" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I81" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="15.75">
       <c r="A82" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="C82" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>253</v>
       </c>
       <c r="D82" s="5">
         <v>18.5</v>
@@ -4973,21 +4983,21 @@
         <v>1850</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I82" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75">
       <c r="A83" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C83" s="15" t="s">
         <v>255</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>256</v>
       </c>
       <c r="D83" s="5">
         <v>18</v>
@@ -5001,21 +5011,21 @@
         <v>1800</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I83" s="27" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="15.75">
       <c r="A84" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="C84" s="15" t="s">
         <v>259</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>260</v>
       </c>
       <c r="D84" s="5">
         <v>5.7</v>
@@ -5024,28 +5034,28 @@
         <v>5.7</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G84" s="6">
         <f t="shared" si="1"/>
         <v>570</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I84" s="27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75">
       <c r="A85" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C85" s="15" t="s">
         <v>262</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>263</v>
       </c>
       <c r="D85" s="5">
         <v>4.5</v>
@@ -5054,28 +5064,28 @@
         <v>4.5</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G85" s="6">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I85" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75">
       <c r="A86" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="C86" s="15" t="s">
         <v>266</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>267</v>
       </c>
       <c r="D86" s="5">
         <v>3.5</v>
@@ -5084,28 +5094,28 @@
         <v>3.5</v>
       </c>
       <c r="F86" s="33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G86" s="6">
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I86" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:9" ht="15.75">
       <c r="A87" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>270</v>
-      </c>
       <c r="C87" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D87" s="5">
         <v>989</v>
@@ -5119,21 +5129,21 @@
         <v>76900</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I87" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75">
       <c r="A88" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C88" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>273</v>
       </c>
       <c r="D88" s="5">
         <v>799</v>
@@ -5147,21 +5157,21 @@
         <v>59900</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I88" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75">
       <c r="A89" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C89" s="15" t="s">
         <v>275</v>
-      </c>
-      <c r="B89" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>276</v>
       </c>
       <c r="D89" s="5">
         <v>1199</v>
@@ -5175,21 +5185,21 @@
         <v>59900</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I89" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="1:9" ht="15.75">
       <c r="A90" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C90" s="15" t="s">
         <v>278</v>
-      </c>
-      <c r="B90" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>279</v>
       </c>
       <c r="D90" s="5">
         <v>2099</v>
@@ -5203,21 +5213,21 @@
         <v>119900</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I90" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75">
       <c r="A91" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C91" s="15" t="s">
         <v>281</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>282</v>
       </c>
       <c r="D91" s="5">
         <v>2699</v>
@@ -5231,21 +5241,21 @@
         <v>169900</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I91" s="27" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75">
       <c r="A92" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C92" s="15" t="s">
         <v>284</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>285</v>
       </c>
       <c r="D92" s="5">
         <v>119</v>
@@ -5259,21 +5269,21 @@
         <v>7900</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I92" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75">
       <c r="A93" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C93" s="15" t="s">
         <v>287</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>288</v>
       </c>
       <c r="D93" s="5">
         <v>119</v>
@@ -5287,21 +5297,21 @@
         <v>7900</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I93" s="27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75">
       <c r="A94" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B94" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="C94" s="13" t="s">
         <v>290</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>291</v>
       </c>
       <c r="D94" s="11">
         <v>109</v>
@@ -5310,28 +5320,28 @@
         <v>109</v>
       </c>
       <c r="F94" s="33" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G94" s="6">
         <f t="shared" si="1"/>
         <v>10900</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I94" s="27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="15.75">
       <c r="A95" s="28" t="s">
+        <v>292</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="C95" s="15" t="s">
         <v>293</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>294</v>
       </c>
       <c r="D95" s="5">
         <v>99</v>
@@ -5340,28 +5350,28 @@
         <v>99</v>
       </c>
       <c r="F95" s="33" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G95" s="6">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I95" s="27" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" spans="1:9" ht="15.75">
       <c r="A96" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="C96" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>298</v>
       </c>
       <c r="D96" s="5">
         <v>199</v>
@@ -5370,28 +5380,28 @@
         <v>169</v>
       </c>
       <c r="F96" s="33" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G96" s="6">
         <f t="shared" si="1"/>
         <v>16900</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I96" s="27" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="15.75">
       <c r="A97" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C97" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="B97" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="D97" s="5">
         <v>259</v>
@@ -5400,28 +5410,28 @@
         <v>189</v>
       </c>
       <c r="F97" s="33" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G97" s="6">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I97" s="26" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15.75">
       <c r="A98" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C98" s="4" t="s">
         <v>303</v>
-      </c>
-      <c r="B98" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>304</v>
       </c>
       <c r="D98" s="5">
         <v>139</v>
@@ -5430,28 +5440,28 @@
         <v>79</v>
       </c>
       <c r="F98" s="33" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G98" s="6">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I98" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75">
       <c r="A99" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C99" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="B99" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="D99" s="5">
         <v>139</v>
@@ -5460,28 +5470,28 @@
         <v>79</v>
       </c>
       <c r="F99" s="33" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G99" s="6">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I99" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15.75">
       <c r="A100" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C100" s="4" t="s">
         <v>308</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C100" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="D100" s="5">
         <v>169</v>
@@ -5490,28 +5500,28 @@
         <v>99</v>
       </c>
       <c r="F100" s="33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G100" s="6">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I100" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75">
       <c r="A101" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>311</v>
-      </c>
-      <c r="B101" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>312</v>
       </c>
       <c r="D101" s="5">
         <v>169</v>
@@ -5520,28 +5530,28 @@
         <v>99</v>
       </c>
       <c r="F101" s="33" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G101" s="6">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I101" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15.75">
       <c r="A102" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>313</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>314</v>
       </c>
       <c r="D102" s="5">
         <v>169</v>
@@ -5550,28 +5560,28 @@
         <v>99</v>
       </c>
       <c r="F102" s="33" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G102" s="6">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I102" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75">
       <c r="A103" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C103" s="4" t="s">
         <v>316</v>
-      </c>
-      <c r="B103" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="D103" s="5">
         <v>169</v>
@@ -5580,28 +5590,28 @@
         <v>99</v>
       </c>
       <c r="F103" s="33" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="G103" s="6">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I103" s="30" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:9" ht="15.75">
       <c r="A104" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="C104" s="4" t="s">
         <v>320</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>321</v>
       </c>
       <c r="D104" s="5">
         <v>179</v>
@@ -5615,21 +5625,21 @@
         <v>17700</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I104" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75">
       <c r="A105" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="C105" s="10" t="s">
         <v>324</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>325</v>
       </c>
       <c r="D105" s="11">
         <v>559</v>
@@ -5643,21 +5653,21 @@
         <v>32900</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I105" s="27" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="106" spans="1:9" ht="15.75">
       <c r="A106" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C106" s="10" t="s">
         <v>327</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>328</v>
       </c>
       <c r="D106" s="11">
         <v>699</v>
@@ -5671,21 +5681,21 @@
         <v>45900</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I106" s="27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75">
       <c r="A107" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C107" s="10" t="s">
         <v>330</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>331</v>
       </c>
       <c r="D107" s="5">
         <v>699</v>
@@ -5699,21 +5709,21 @@
         <v>45900</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I107" s="27" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="15.75">
       <c r="A108" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B108" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="C108" s="20" t="s">
         <v>333</v>
-      </c>
-      <c r="C108" s="20" t="s">
-        <v>334</v>
       </c>
       <c r="D108" s="11">
         <v>119</v>
@@ -5727,21 +5737,21 @@
         <v>9900</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I108" s="27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75">
       <c r="A109" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="C109" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="D109" s="5">
         <v>239</v>
@@ -5750,28 +5760,28 @@
         <v>209</v>
       </c>
       <c r="F109" s="33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G109" s="6">
         <f t="shared" si="1"/>
         <v>20900</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I109" s="27" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15.75">
       <c r="A110" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C110" s="15" t="s">
         <v>340</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>341</v>
       </c>
       <c r="D110" s="5">
         <v>209</v>
@@ -5780,28 +5790,28 @@
         <v>189</v>
       </c>
       <c r="F110" s="33" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G110" s="6">
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I110" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15.75">
       <c r="A111" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C111" s="15" t="s">
         <v>343</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>344</v>
       </c>
       <c r="D111" s="5">
         <v>135</v>
@@ -5815,21 +5825,21 @@
         <v>10900</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I111" s="27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="112" spans="1:9" ht="15.75">
       <c r="A112" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="C112" s="4" t="s">
         <v>347</v>
-      </c>
-      <c r="C112" s="4" t="s">
-        <v>348</v>
       </c>
       <c r="D112" s="5">
         <v>106</v>
@@ -5843,21 +5853,21 @@
         <v>10500</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I112" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="15.75">
       <c r="A113" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C113" s="15" t="s">
         <v>350</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>351</v>
       </c>
       <c r="D113" s="5">
         <v>86</v>
@@ -5871,21 +5881,21 @@
         <v>8400</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I113" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15.75">
       <c r="A114" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C114" s="15" t="s">
         <v>353</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>354</v>
       </c>
       <c r="D114" s="5">
         <v>86</v>
@@ -5899,21 +5909,21 @@
         <v>8400</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I114" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15.75">
       <c r="A115" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C115" s="15" t="s">
         <v>356</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C115" s="15" t="s">
-        <v>357</v>
       </c>
       <c r="D115" s="5">
         <v>86</v>
@@ -5927,21 +5937,21 @@
         <v>8400</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I115" s="27" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="15.75">
       <c r="A116" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C116" s="10" t="s">
         <v>359</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C116" s="10" t="s">
-        <v>360</v>
       </c>
       <c r="D116" s="11">
         <v>106</v>
@@ -5955,21 +5965,21 @@
         <v>10400</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I116" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="15.75">
       <c r="A117" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="C117" s="15" t="s">
         <v>363</v>
-      </c>
-      <c r="C117" s="15" t="s">
-        <v>364</v>
       </c>
       <c r="D117" s="5">
         <v>8.6</v>
@@ -5978,28 +5988,28 @@
         <v>8.6</v>
       </c>
       <c r="F117" s="33" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G117" s="6">
         <f t="shared" si="1"/>
         <v>860</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I117" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="15.75">
       <c r="A118" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C118" s="15" t="s">
         <v>366</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C118" s="15" t="s">
-        <v>367</v>
       </c>
       <c r="D118" s="5">
         <v>8</v>
@@ -6008,28 +6018,28 @@
         <v>8</v>
       </c>
       <c r="F118" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G118" s="6">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I118" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="15.75">
       <c r="A119" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C119" s="15" t="s">
         <v>369</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C119" s="15" t="s">
-        <v>370</v>
       </c>
       <c r="D119" s="5">
         <v>8</v>
@@ -6038,28 +6048,28 @@
         <v>8</v>
       </c>
       <c r="F119" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G119" s="6">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I119" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="15.75">
       <c r="A120" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C120" s="15" t="s">
         <v>372</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="C120" s="15" t="s">
-        <v>373</v>
       </c>
       <c r="D120" s="5">
         <v>8</v>
@@ -6068,28 +6078,28 @@
         <v>8</v>
       </c>
       <c r="F120" s="33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G120" s="6">
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I120" s="27" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="15.75">
       <c r="A121" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="C121" s="15" t="s">
         <v>376</v>
-      </c>
-      <c r="C121" s="15" t="s">
-        <v>377</v>
       </c>
       <c r="D121" s="5">
         <v>12.5</v>
@@ -6103,21 +6113,21 @@
         <v>1250</v>
       </c>
       <c r="H121" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="I121" s="27" t="s">
         <v>378</v>
-      </c>
-      <c r="I121" s="27" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="15.75">
       <c r="A122" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="C122" s="13" t="s">
         <v>381</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>382</v>
       </c>
       <c r="D122" s="11">
         <v>69</v>
@@ -6131,21 +6141,21 @@
         <v>6900</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I122" s="27" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="15.75">
       <c r="A123" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C123" s="13" t="s">
         <v>384</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C123" s="13" t="s">
-        <v>385</v>
       </c>
       <c r="D123" s="11">
         <v>69</v>
@@ -6159,21 +6169,21 @@
         <v>6900</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I123" s="27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="15.75">
       <c r="A124" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C124" s="13" t="s">
         <v>387</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>388</v>
       </c>
       <c r="D124" s="11">
         <v>69</v>
@@ -6187,21 +6197,21 @@
         <v>6900</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I124" s="27" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15.75">
       <c r="A125" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C125" s="15" t="s">
         <v>390</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C125" s="15" t="s">
-        <v>391</v>
       </c>
       <c r="D125" s="5">
         <v>89</v>
@@ -6215,21 +6225,21 @@
         <v>8900</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I125" s="27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15.75">
       <c r="A126" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D126" s="5">
         <v>89</v>
@@ -6243,21 +6253,21 @@
         <v>8900</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I126" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15.75">
       <c r="A127" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D127" s="5">
         <v>89</v>
@@ -6271,21 +6281,21 @@
         <v>8900</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I127" s="27" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15.75">
       <c r="A128" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C128" s="15" t="s">
         <v>397</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="C128" s="15" t="s">
-        <v>398</v>
       </c>
       <c r="D128" s="5">
         <v>39.9</v>
@@ -6299,21 +6309,21 @@
         <v>3990</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I128" s="27" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="15.75">
       <c r="A129" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="B129" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="C129" s="15" t="s">
         <v>401</v>
-      </c>
-      <c r="C129" s="15" t="s">
-        <v>402</v>
       </c>
       <c r="D129" s="5">
         <v>469</v>
@@ -6327,21 +6337,21 @@
         <v>44900</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I129" s="27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="15.75">
       <c r="A130" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="C130" s="15" t="s">
         <v>405</v>
-      </c>
-      <c r="C130" s="15" t="s">
-        <v>406</v>
       </c>
       <c r="D130" s="11">
         <v>79</v>
@@ -6355,21 +6365,21 @@
         <v>7900</v>
       </c>
       <c r="H130" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I130" s="27" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15.75">
       <c r="A131" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C131" s="15" t="s">
         <v>408</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C131" s="15" t="s">
-        <v>409</v>
       </c>
       <c r="D131" s="11">
         <v>159</v>
@@ -6383,21 +6393,21 @@
         <v>15900</v>
       </c>
       <c r="H131" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I131" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15.75">
       <c r="A132" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C132" s="15" t="s">
         <v>411</v>
-      </c>
-      <c r="B132" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C132" s="15" t="s">
-        <v>412</v>
       </c>
       <c r="D132" s="11">
         <v>159</v>
@@ -6411,21 +6421,21 @@
         <v>15900</v>
       </c>
       <c r="H132" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I132" s="27" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15.75">
       <c r="A133" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C133" s="15" t="s">
         <v>414</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C133" s="15" t="s">
-        <v>415</v>
       </c>
       <c r="D133" s="11">
         <v>159</v>
@@ -6439,21 +6449,21 @@
         <v>15900</v>
       </c>
       <c r="H133" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I133" s="26" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15.75">
       <c r="A134" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C134" s="15" t="s">
         <v>417</v>
-      </c>
-      <c r="B134" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C134" s="15" t="s">
-        <v>418</v>
       </c>
       <c r="D134" s="11">
         <v>159</v>
@@ -6467,21 +6477,21 @@
         <v>15900</v>
       </c>
       <c r="H134" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I134" s="26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="135" spans="1:9" ht="15.75">
       <c r="A135" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C135" s="15" t="s">
         <v>420</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C135" s="15" t="s">
-        <v>421</v>
       </c>
       <c r="D135" s="11">
         <v>79</v>
@@ -6495,21 +6505,21 @@
         <v>7900</v>
       </c>
       <c r="H135" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I135" s="26" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="136" spans="1:9" ht="15.75">
       <c r="A136" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C136" s="15" t="s">
         <v>423</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="C136" s="15" t="s">
-        <v>424</v>
       </c>
       <c r="D136" s="11">
         <v>79</v>
@@ -6523,21 +6533,21 @@
         <v>7900</v>
       </c>
       <c r="H136" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I136" s="26" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="15.75">
       <c r="A137" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B137" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="C137" s="10" t="s">
         <v>427</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>428</v>
       </c>
       <c r="D137" s="11">
         <v>289</v>
@@ -6551,21 +6561,21 @@
         <v>27900</v>
       </c>
       <c r="H137" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I137" s="27" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="138" spans="1:9" ht="15.75">
       <c r="A138" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C138" s="15" t="s">
         <v>430</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="C138" s="15" t="s">
-        <v>431</v>
       </c>
       <c r="D138" s="5">
         <v>199</v>
@@ -6574,28 +6584,28 @@
         <v>169</v>
       </c>
       <c r="F138" s="33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G138" s="6">
         <f t="shared" si="2"/>
         <v>16900</v>
       </c>
       <c r="H138" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I138" s="27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="139" spans="1:9" ht="15.75">
       <c r="A139" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="B139" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="C139" s="15" t="s">
         <v>434</v>
-      </c>
-      <c r="C139" s="15" t="s">
-        <v>435</v>
       </c>
       <c r="D139" s="5">
         <v>8.1</v>
@@ -6609,21 +6619,21 @@
         <v>810</v>
       </c>
       <c r="H139" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I139" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="15.75">
       <c r="A140" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C140" s="15" t="s">
         <v>437</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C140" s="15" t="s">
-        <v>438</v>
       </c>
       <c r="D140" s="5">
         <v>3.3</v>
@@ -6637,21 +6647,21 @@
         <v>330</v>
       </c>
       <c r="H140" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I140" s="27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="15.75">
       <c r="A141" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C141" s="35" t="s">
         <v>440</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="C141" s="35" t="s">
-        <v>441</v>
       </c>
       <c r="D141" s="5">
         <v>11.5</v>
@@ -6660,28 +6670,28 @@
         <v>11.5</v>
       </c>
       <c r="F141" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G141" s="6">
         <f t="shared" si="2"/>
         <v>1150</v>
       </c>
       <c r="H141" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I141" s="27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="15.75">
       <c r="A142" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B142" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="C142" s="4" t="s">
         <v>444</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>445</v>
       </c>
       <c r="D142" s="5">
         <v>449</v>
@@ -6690,28 +6700,28 @@
         <v>399</v>
       </c>
       <c r="F142" s="33" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G142" s="6">
         <f t="shared" si="2"/>
         <v>39900</v>
       </c>
       <c r="H142" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I142" s="27" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="15.75">
       <c r="A143" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="B143" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="C143" s="15" t="s">
         <v>448</v>
-      </c>
-      <c r="C143" s="15" t="s">
-        <v>449</v>
       </c>
       <c r="D143" s="5">
         <v>2.6</v>
@@ -6720,28 +6730,28 @@
         <v>2.6</v>
       </c>
       <c r="F143" s="33" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G143" s="6">
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="H143" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I143" s="27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="15.75">
       <c r="A144" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="B144" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="B144" s="12" t="s">
+      <c r="C144" s="36" t="s">
         <v>452</v>
-      </c>
-      <c r="C144" s="36" t="s">
-        <v>453</v>
       </c>
       <c r="D144" s="11">
         <v>259</v>
@@ -6750,28 +6760,28 @@
         <v>259</v>
       </c>
       <c r="F144" s="33" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G144" s="6">
         <f t="shared" si="2"/>
         <v>25900</v>
       </c>
       <c r="H144" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I144" s="27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="15.75">
       <c r="A145" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C145" s="15" t="s">
         <v>455</v>
-      </c>
-      <c r="B145" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="C145" s="15" t="s">
-        <v>456</v>
       </c>
       <c r="D145" s="5">
         <v>269</v>
@@ -6785,21 +6795,21 @@
         <v>26900</v>
       </c>
       <c r="H145" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I145" s="27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15.75">
       <c r="A146" s="16" t="s">
+        <v>457</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="C146" s="15" t="s">
         <v>458</v>
-      </c>
-      <c r="B146" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="C146" s="15" t="s">
-        <v>459</v>
       </c>
       <c r="D146" s="5">
         <v>129</v>
@@ -6808,28 +6818,28 @@
         <v>129</v>
       </c>
       <c r="F146" s="33" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G146" s="6">
         <f t="shared" si="2"/>
         <v>12900</v>
       </c>
       <c r="H146" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I146" s="27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15.75">
       <c r="A147" s="16" t="s">
+        <v>460</v>
+      </c>
+      <c r="B147" s="12" t="s">
         <v>461</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="C147" s="15" t="s">
         <v>462</v>
-      </c>
-      <c r="C147" s="15" t="s">
-        <v>463</v>
       </c>
       <c r="D147" s="5">
         <v>1999</v>
@@ -6843,21 +6853,21 @@
         <v>149900</v>
       </c>
       <c r="H147" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I147" s="27" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="148" spans="1:9" ht="15.75">
       <c r="A148" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="B148" s="3" t="s">
         <v>465</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="C148" s="15" t="s">
         <v>466</v>
-      </c>
-      <c r="C148" s="15" t="s">
-        <v>467</v>
       </c>
       <c r="D148" s="5">
         <v>9.1</v>
@@ -6866,28 +6876,28 @@
         <v>9.1</v>
       </c>
       <c r="F148" s="33" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G148" s="6">
         <f t="shared" si="2"/>
         <v>910</v>
       </c>
       <c r="H148" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I148" s="27" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="149" spans="1:9" ht="15.75">
       <c r="A149" s="16" t="s">
+        <v>468</v>
+      </c>
+      <c r="B149" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="C149" s="15" t="s">
         <v>470</v>
-      </c>
-      <c r="C149" s="15" t="s">
-        <v>471</v>
       </c>
       <c r="D149" s="5">
         <v>16.5</v>
@@ -6896,28 +6906,28 @@
         <v>16.5</v>
       </c>
       <c r="F149" s="33" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G149" s="6">
         <f t="shared" si="2"/>
         <v>1650</v>
       </c>
       <c r="H149" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I149" s="27" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="15.75">
       <c r="A150" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="B150" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="C150" s="15" t="s">
         <v>474</v>
-      </c>
-      <c r="C150" s="15" t="s">
-        <v>475</v>
       </c>
       <c r="D150" s="5">
         <v>18.899999999999999</v>
@@ -6931,21 +6941,21 @@
         <v>1890</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I150" s="27" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="15.75">
       <c r="A151" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C151" s="15" t="s">
         <v>477</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C151" s="15" t="s">
-        <v>478</v>
       </c>
       <c r="D151" s="5">
         <v>30</v>
@@ -6959,21 +6969,21 @@
         <v>3000</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I151" s="27" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="152" spans="1:9" ht="15.75">
       <c r="A152" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C152" s="15" t="s">
         <v>480</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C152" s="15" t="s">
-        <v>481</v>
       </c>
       <c r="D152" s="5">
         <v>36</v>
@@ -6987,21 +6997,21 @@
         <v>3600</v>
       </c>
       <c r="H152" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I152" s="27" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="15.75">
       <c r="A153" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C153" s="15" t="s">
         <v>483</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C153" s="15" t="s">
-        <v>484</v>
       </c>
       <c r="D153" s="5">
         <v>35</v>
@@ -7015,21 +7025,21 @@
         <v>3500</v>
       </c>
       <c r="H153" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I153" s="27" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15.75">
       <c r="A154" s="14" t="s">
+        <v>485</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C154" s="15" t="s">
         <v>486</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>487</v>
       </c>
       <c r="D154" s="5">
         <v>35</v>
@@ -7043,21 +7053,21 @@
         <v>3500</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I154" s="27" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="15.75">
       <c r="A155" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C155" s="15" t="s">
         <v>489</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C155" s="15" t="s">
-        <v>490</v>
       </c>
       <c r="D155" s="5">
         <v>40</v>
@@ -7071,21 +7081,21 @@
         <v>4000</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I155" s="27" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="15.75">
       <c r="A156" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C156" s="15" t="s">
         <v>492</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C156" s="15" t="s">
-        <v>493</v>
       </c>
       <c r="D156" s="5">
         <v>50</v>
@@ -7099,21 +7109,21 @@
         <v>5000</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I156" s="27" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="15.75">
       <c r="A157" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C157" s="15" t="s">
         <v>495</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="C157" s="15" t="s">
-        <v>496</v>
       </c>
       <c r="D157" s="5">
         <v>15</v>
@@ -7127,21 +7137,21 @@
         <v>1500</v>
       </c>
       <c r="H157" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I157" s="27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="15.75">
       <c r="A158" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="B158" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="C158" s="15" t="s">
         <v>499</v>
-      </c>
-      <c r="C158" s="15" t="s">
-        <v>500</v>
       </c>
       <c r="D158" s="5">
         <v>7.9</v>
@@ -7150,28 +7160,28 @@
         <v>7.9</v>
       </c>
       <c r="F158" s="33" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G158" s="6">
         <f t="shared" si="2"/>
         <v>790</v>
       </c>
       <c r="H158" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I158" s="27" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15.75">
       <c r="A159" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="B159" s="12" t="s">
         <v>502</v>
       </c>
-      <c r="B159" s="12" t="s">
+      <c r="C159" s="15" t="s">
         <v>503</v>
-      </c>
-      <c r="C159" s="15" t="s">
-        <v>504</v>
       </c>
       <c r="D159" s="5">
         <v>299</v>
@@ -7185,21 +7195,21 @@
         <v>29900</v>
       </c>
       <c r="H159" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I159" s="27" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="160" spans="1:9" ht="15.75">
       <c r="A160" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="C160" s="15" t="s">
         <v>506</v>
-      </c>
-      <c r="B160" s="12" t="s">
-        <v>503</v>
-      </c>
-      <c r="C160" s="15" t="s">
-        <v>507</v>
       </c>
       <c r="D160" s="5">
         <v>229</v>
@@ -7213,21 +7223,21 @@
         <v>22900</v>
       </c>
       <c r="H160" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I160" s="27" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15.75">
       <c r="A161" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="C161" s="4" t="s">
         <v>510</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>511</v>
       </c>
       <c r="D161" s="5">
         <v>309</v>
@@ -7241,21 +7251,21 @@
         <v>29900</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I161" s="27" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="15.75">
       <c r="A162" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>514</v>
       </c>
       <c r="D162" s="5">
         <v>339</v>
@@ -7269,21 +7279,21 @@
         <v>32900</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I162" s="27" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="15.75">
       <c r="A163" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C163" s="15" t="s">
         <v>516</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C163" s="15" t="s">
-        <v>517</v>
       </c>
       <c r="D163" s="5">
         <v>159</v>
@@ -7297,21 +7307,21 @@
         <v>15600</v>
       </c>
       <c r="H163" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I163" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15.75">
       <c r="A164" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C164" s="15" t="s">
         <v>519</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C164" s="15" t="s">
-        <v>520</v>
       </c>
       <c r="D164" s="5">
         <v>159</v>
@@ -7325,21 +7335,21 @@
         <v>15600</v>
       </c>
       <c r="H164" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I164" s="27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="15.75">
       <c r="A165" s="16" t="s">
+        <v>521</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C165" s="15" t="s">
         <v>522</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="C165" s="15" t="s">
-        <v>523</v>
       </c>
       <c r="D165" s="5">
         <v>169</v>
@@ -7353,21 +7363,21 @@
         <v>16600</v>
       </c>
       <c r="H165" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I165" s="27" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15.75">
       <c r="A166" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="B166" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="C166" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="C166" s="4" t="s">
-        <v>527</v>
       </c>
       <c r="D166" s="5">
         <v>299</v>
@@ -7381,21 +7391,21 @@
         <v>18900</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I166" s="27" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="167" spans="1:9" ht="15.75">
       <c r="A167" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="B167" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="C167" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="C167" s="4" t="s">
-        <v>531</v>
       </c>
       <c r="D167" s="5">
         <v>1899</v>
@@ -7409,21 +7419,21 @@
         <v>139900</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I167" s="27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="15.75">
       <c r="A168" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>533</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>534</v>
       </c>
       <c r="D168" s="5">
         <v>1299</v>
@@ -7437,21 +7447,21 @@
         <v>87900</v>
       </c>
       <c r="H168" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I168" s="27" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15.75">
       <c r="A169" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C169" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="C169" s="4" t="s">
-        <v>537</v>
       </c>
       <c r="D169" s="5">
         <v>1499</v>
@@ -7465,21 +7475,21 @@
         <v>104900</v>
       </c>
       <c r="H169" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I169" s="27" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15.75">
       <c r="A170" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="B170" s="3" t="s">
         <v>539</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="C170" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>541</v>
       </c>
       <c r="D170" s="5">
         <v>499</v>
@@ -7493,21 +7503,21 @@
         <v>49900</v>
       </c>
       <c r="H170" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I170" s="27" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15.75">
       <c r="A171" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="B171" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="C171" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>545</v>
       </c>
       <c r="D171" s="5">
         <v>699</v>
@@ -7521,21 +7531,21 @@
         <v>49900</v>
       </c>
       <c r="H171" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I171" s="27" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15.75">
       <c r="A172" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C172" s="4" t="s">
         <v>547</v>
-      </c>
-      <c r="B172" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="C172" s="4" t="s">
-        <v>548</v>
       </c>
       <c r="D172" s="5">
         <v>299</v>
@@ -7544,28 +7554,28 @@
         <v>269</v>
       </c>
       <c r="F172" s="33" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G172" s="6">
         <f t="shared" si="2"/>
         <v>26900</v>
       </c>
       <c r="H172" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I172" s="27" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15.75">
       <c r="A173" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C173" s="4" t="s">
         <v>550</v>
-      </c>
-      <c r="B173" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="C173" s="4" t="s">
-        <v>551</v>
       </c>
       <c r="D173" s="5">
         <v>246</v>
@@ -7574,28 +7584,28 @@
         <v>209</v>
       </c>
       <c r="F173" s="33" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G173" s="6">
         <f t="shared" si="2"/>
         <v>20900</v>
       </c>
       <c r="H173" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I173" s="27" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="174" spans="1:9" ht="15.75">
       <c r="A174" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C174" s="4" t="s">
         <v>553</v>
-      </c>
-      <c r="B174" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="C174" s="4" t="s">
-        <v>554</v>
       </c>
       <c r="D174" s="5">
         <v>179</v>
@@ -7604,28 +7614,28 @@
         <v>139</v>
       </c>
       <c r="F174" s="33" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G174" s="6">
         <f t="shared" si="2"/>
         <v>13900</v>
       </c>
       <c r="H174" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I174" s="27" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="15.75">
       <c r="A175" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C175" s="4" t="s">
         <v>556</v>
-      </c>
-      <c r="B175" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="C175" s="4" t="s">
-        <v>557</v>
       </c>
       <c r="D175" s="5">
         <v>439</v>
@@ -7634,17 +7644,17 @@
         <v>379</v>
       </c>
       <c r="F175" s="33" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G175" s="6">
         <f t="shared" si="2"/>
         <v>37900</v>
       </c>
       <c r="H175" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I175" s="27" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>

--- a/database.xlsx
+++ b/database.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Along\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008C492A-F286-46B7-904F-BE824C5BE2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60479E21-B29C-4B53-86BB-5F41DB0238AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="601">
   <si>
     <t>SCF</t>
   </si>
@@ -1711,6 +1711,9 @@
     <t>28cm</t>
   </si>
   <si>
+    <t>2m</t>
+  </si>
+  <si>
     <t>26cm</t>
   </si>
   <si>
@@ -1777,9 +1780,6 @@
     <t>500ml</t>
   </si>
   <si>
-    <t>2 Ply</t>
-  </si>
-  <si>
     <t>Non-Pump</t>
   </si>
   <si>
@@ -1802,6 +1802,27 @@
   </si>
   <si>
     <t>SPECS</t>
+  </si>
+  <si>
+    <t>2100W</t>
+  </si>
+  <si>
+    <t>2Ply</t>
+  </si>
+  <si>
+    <t>7.4L</t>
+  </si>
+  <si>
+    <t>5L</t>
+  </si>
+  <si>
+    <t>175g</t>
+  </si>
+  <si>
+    <t>7m</t>
+  </si>
+  <si>
+    <t>6in1</t>
   </si>
 </sst>
 </file>
@@ -2002,7 +2023,7 @@
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2116,6 +2137,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2610,7 +2634,7 @@
   <dimension ref="A1:I175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2784,7 +2808,9 @@
       <c r="E6" s="11">
         <v>23</v>
       </c>
-      <c r="F6" s="31"/>
+      <c r="F6" s="33" t="s">
+        <v>600</v>
+      </c>
       <c r="G6" s="6">
         <f t="shared" si="0"/>
         <v>2300</v>
@@ -2840,7 +2866,9 @@
       <c r="E8" s="5">
         <v>369</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="33" t="s">
+        <v>589</v>
+      </c>
       <c r="G8" s="6">
         <f t="shared" si="0"/>
         <v>36900</v>
@@ -2868,7 +2896,9 @@
       <c r="E9" s="5">
         <v>369</v>
       </c>
-      <c r="F9" s="31"/>
+      <c r="F9" s="33" t="s">
+        <v>589</v>
+      </c>
       <c r="G9" s="6">
         <f t="shared" si="0"/>
         <v>36900</v>
@@ -2896,7 +2926,9 @@
       <c r="E10" s="5">
         <v>289</v>
       </c>
-      <c r="F10" s="31"/>
+      <c r="F10" s="33" t="s">
+        <v>589</v>
+      </c>
       <c r="G10" s="6">
         <f t="shared" si="0"/>
         <v>28900</v>
@@ -2924,7 +2956,9 @@
       <c r="E11" s="5">
         <v>145</v>
       </c>
-      <c r="F11" s="31"/>
+      <c r="F11" s="33" t="s">
+        <v>563</v>
+      </c>
       <c r="G11" s="6">
         <f t="shared" si="0"/>
         <v>14500</v>
@@ -3512,7 +3546,9 @@
       <c r="E32" s="5">
         <v>93</v>
       </c>
-      <c r="F32" s="31"/>
+      <c r="F32" s="33" t="s">
+        <v>599</v>
+      </c>
       <c r="G32" s="6">
         <f t="shared" si="0"/>
         <v>9300</v>
@@ -3609,7 +3645,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="38" t="s">
         <v>112</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -3624,7 +3660,9 @@
       <c r="E36" s="5">
         <v>479</v>
       </c>
-      <c r="F36" s="31"/>
+      <c r="F36" s="33" t="s">
+        <v>578</v>
+      </c>
       <c r="G36" s="6">
         <f t="shared" si="0"/>
         <v>47900</v>
@@ -3652,7 +3690,9 @@
       <c r="E37" s="5">
         <v>9.9</v>
       </c>
-      <c r="F37" s="31"/>
+      <c r="F37" s="33" t="s">
+        <v>598</v>
+      </c>
       <c r="G37" s="6">
         <f t="shared" si="0"/>
         <v>990</v>
@@ -4039,7 +4079,7 @@
         <v>169</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="G50" s="6">
         <f t="shared" si="0"/>
@@ -4129,7 +4169,7 @@
         <v>189</v>
       </c>
       <c r="F53" s="33" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G53" s="6">
         <f t="shared" si="0"/>
@@ -4279,7 +4319,7 @@
         <v>149</v>
       </c>
       <c r="F58" s="33" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="G58" s="6">
         <f t="shared" si="0"/>
@@ -4309,7 +4349,7 @@
         <v>169</v>
       </c>
       <c r="F59" s="33" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="G59" s="6">
         <f t="shared" si="0"/>
@@ -4485,7 +4525,7 @@
         <v>18.5</v>
       </c>
       <c r="F65" s="33" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G65" s="6">
         <f t="shared" si="0"/>
@@ -4542,7 +4582,7 @@
         <v>39</v>
       </c>
       <c r="F67" s="33" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="G67" s="6">
         <f t="shared" si="1"/>
@@ -4572,7 +4612,7 @@
         <v>49</v>
       </c>
       <c r="F68" s="33" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="G68" s="6">
         <f t="shared" si="1"/>
@@ -4630,7 +4670,7 @@
         <v>24.9</v>
       </c>
       <c r="F70" s="33" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="G70" s="6">
         <f t="shared" si="1"/>
@@ -4660,7 +4700,7 @@
         <v>20.9</v>
       </c>
       <c r="F71" s="33" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G71" s="6">
         <f t="shared" si="1"/>
@@ -4690,7 +4730,7 @@
         <v>115</v>
       </c>
       <c r="F72" s="33" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G72" s="6">
         <f t="shared" si="1"/>
@@ -4720,7 +4760,7 @@
         <v>200</v>
       </c>
       <c r="F73" s="33" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G73" s="6">
         <f t="shared" si="1"/>
@@ -4778,7 +4818,7 @@
         <v>11.9</v>
       </c>
       <c r="F75" s="33" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G75" s="6">
         <f t="shared" si="1"/>
@@ -4808,7 +4848,7 @@
         <v>129</v>
       </c>
       <c r="F76" s="33" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="G76" s="6">
         <f t="shared" si="1"/>
@@ -5034,7 +5074,7 @@
         <v>5.7</v>
       </c>
       <c r="F84" s="33" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G84" s="6">
         <f t="shared" si="1"/>
@@ -5064,7 +5104,7 @@
         <v>4.5</v>
       </c>
       <c r="F85" s="33" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G85" s="6">
         <f t="shared" si="1"/>
@@ -5094,7 +5134,7 @@
         <v>3.5</v>
       </c>
       <c r="F86" s="33" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G86" s="6">
         <f t="shared" si="1"/>
@@ -5320,7 +5360,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="33" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G94" s="6">
         <f t="shared" si="1"/>
@@ -5350,7 +5390,7 @@
         <v>99</v>
       </c>
       <c r="F95" s="33" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G95" s="6">
         <f t="shared" si="1"/>
@@ -5380,7 +5420,7 @@
         <v>169</v>
       </c>
       <c r="F96" s="33" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G96" s="6">
         <f t="shared" si="1"/>
@@ -5410,7 +5450,7 @@
         <v>189</v>
       </c>
       <c r="F97" s="33" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G97" s="6">
         <f t="shared" si="1"/>
@@ -5440,7 +5480,7 @@
         <v>79</v>
       </c>
       <c r="F98" s="33" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G98" s="6">
         <f t="shared" si="1"/>
@@ -5470,7 +5510,7 @@
         <v>79</v>
       </c>
       <c r="F99" s="33" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="G99" s="6">
         <f t="shared" si="1"/>
@@ -5500,7 +5540,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="33" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G100" s="6">
         <f t="shared" si="1"/>
@@ -5530,7 +5570,7 @@
         <v>99</v>
       </c>
       <c r="F101" s="33" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G101" s="6">
         <f t="shared" si="1"/>
@@ -5560,7 +5600,7 @@
         <v>99</v>
       </c>
       <c r="F102" s="33" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G102" s="6">
         <f t="shared" si="1"/>
@@ -5590,7 +5630,7 @@
         <v>99</v>
       </c>
       <c r="F103" s="33" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="G103" s="6">
         <f t="shared" si="1"/>
@@ -5760,7 +5800,7 @@
         <v>209</v>
       </c>
       <c r="F109" s="33" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G109" s="6">
         <f t="shared" si="1"/>
@@ -5790,7 +5830,7 @@
         <v>189</v>
       </c>
       <c r="F110" s="33" t="s">
-        <v>583</v>
+        <v>594</v>
       </c>
       <c r="G110" s="6">
         <f t="shared" si="1"/>
@@ -5819,7 +5859,9 @@
       <c r="E111" s="5">
         <v>109</v>
       </c>
-      <c r="F111" s="31"/>
+      <c r="F111" s="33" t="s">
+        <v>584</v>
+      </c>
       <c r="G111" s="6">
         <f t="shared" si="1"/>
         <v>10900</v>
@@ -5988,7 +6030,7 @@
         <v>8.6</v>
       </c>
       <c r="F117" s="33" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G117" s="6">
         <f t="shared" si="1"/>
@@ -6018,7 +6060,7 @@
         <v>8</v>
       </c>
       <c r="F118" s="33" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G118" s="6">
         <f t="shared" si="1"/>
@@ -6048,7 +6090,7 @@
         <v>8</v>
       </c>
       <c r="F119" s="33" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G119" s="6">
         <f t="shared" si="1"/>
@@ -6078,7 +6120,7 @@
         <v>8</v>
       </c>
       <c r="F120" s="33" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G120" s="6">
         <f t="shared" si="1"/>
@@ -6584,7 +6626,7 @@
         <v>169</v>
       </c>
       <c r="F138" s="33" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G138" s="6">
         <f t="shared" si="2"/>
@@ -6670,7 +6712,7 @@
         <v>11.5</v>
       </c>
       <c r="F141" s="33" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="G141" s="6">
         <f t="shared" si="2"/>
@@ -6906,7 +6948,7 @@
         <v>16.5</v>
       </c>
       <c r="F149" s="33" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="G149" s="6">
         <f t="shared" si="2"/>
@@ -7497,7 +7539,9 @@
       <c r="E170" s="5">
         <v>499</v>
       </c>
-      <c r="F170" s="31"/>
+      <c r="F170" s="33" t="s">
+        <v>597</v>
+      </c>
       <c r="G170" s="6">
         <f t="shared" si="2"/>
         <v>49900</v>
@@ -7525,7 +7569,9 @@
       <c r="E171" s="5">
         <v>499</v>
       </c>
-      <c r="F171" s="31"/>
+      <c r="F171" s="33" t="s">
+        <v>596</v>
+      </c>
       <c r="G171" s="6">
         <f t="shared" si="2"/>
         <v>49900</v>
@@ -7644,7 +7690,7 @@
         <v>379</v>
       </c>
       <c r="F175" s="33" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G175" s="6">
         <f t="shared" si="2"/>

--- a/database.xlsx
+++ b/database.xlsx
@@ -389,13 +389,13 @@
     <t>CORNELL</t>
   </si>
   <si>
-    <t>20 Speeds Bladeless DC Motor Stand Fan</t>
+    <t>Cornell CBF-002DCR Bladeless Fan – 20 Speeds, Remote Control</t>
   </si>
   <si>
     <t>35W</t>
   </si>
   <si>
-    <t>https://www.circlezestore.com/20048/cornell-bladeless-fan-table-cbf-001dcr.jpg</t>
+    <t>https://i.postimg.cc/3JrxhjSq/cor.png</t>
   </si>
   <si>
     <t>SCF-100.DARLIE175MD</t>
@@ -1736,6 +1736,42 @@
     <t>https://cdn.homepro.com.my/ART_IMAGE/10/632/1063236/447x447/05082022_1063236$Imagex1.jpg</t>
   </si>
   <si>
+    <t>SCF-100.KITCHENWARE5PCS</t>
+  </si>
+  <si>
+    <t>Tefal 5-Piece Kitchenware Set – Chef Knife, Kitchen Shears, Ladle Spatula, Wok Spatula &amp; Whisk.</t>
+  </si>
+  <si>
+    <t>5pcs</t>
+  </si>
+  <si>
+    <t>Add effective 6th Feb 2025</t>
+  </si>
+  <si>
+    <t>https://dam.groupeseb.com/m/28b617914f9a5ca2/digital-Tefal-Kitchenware-5pc-Set.png?timestamp=20230830115600&amp;width=640&amp;height=800</t>
+  </si>
+  <si>
+    <t>SCF-100.RK736B</t>
+  </si>
+  <si>
+    <t>Tefal Easy Rice RK736B Fuzzy Logic Rice Cooker – 1.8L (10-Cup Capacity)</t>
+  </si>
+  <si>
+    <t>https://etsound.com.sg/cdn/shop/files/1_3dad9e3c-e26e-456e-baa2-3fd9b46e1396.jpg?v=1691243149&amp;width=1214</t>
+  </si>
+  <si>
+    <t>SCF-100.G14398</t>
+  </si>
+  <si>
+    <t>Tefal Day By Day 32cm Wokpan with Lid – Non-Stick, All Hobs + Induction, Thermo-Signal™ Technology</t>
+  </si>
+  <si>
+    <t>32cm</t>
+  </si>
+  <si>
+    <t>https://img.srewardscentre.com.my/image/e526ced590e34e94a2d7916f8c9eb422.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082</t>
+  </si>
+  <si>
     <t>SCF-100.S6</t>
   </si>
   <si>
@@ -1833,42 +1869,6 @@
   </si>
   <si>
     <t>https://d1pjg4o0tbonat.cloudfront.net/content/dam/toshiba-aem/my/small-home-appliances/rice-cooker/1-8l-digital-rice-cooker-rc-18dr1nmy/gallery2.png</t>
-  </si>
-  <si>
-    <t>SCF-100.KITCHENWARE5PCS</t>
-  </si>
-  <si>
-    <t>Tefal 5-Piece Kitchenware Set – Chef Knife, Kitchen Shears, Ladle Spatula, Wok Spatula &amp; Whisk.</t>
-  </si>
-  <si>
-    <t>5pcs</t>
-  </si>
-  <si>
-    <t>Add effective 6th Feb 2025</t>
-  </si>
-  <si>
-    <t>https://dam.groupeseb.com/m/28b617914f9a5ca2/digital-Tefal-Kitchenware-5pc-Set.png?timestamp=20230830115600&amp;width=640&amp;height=800</t>
-  </si>
-  <si>
-    <t>SCF-100.RK736B</t>
-  </si>
-  <si>
-    <t>Tefal Easy Rice RK736B Fuzzy Logic Rice Cooker – 1.8L (10-Cup Capacity)</t>
-  </si>
-  <si>
-    <t>https://etsound.com.sg/cdn/shop/files/1_3dad9e3c-e26e-456e-baa2-3fd9b46e1396.jpg?v=1691243149&amp;width=1214</t>
-  </si>
-  <si>
-    <t>SCF-100.G14398</t>
-  </si>
-  <si>
-    <t>Tefal Day By Day 32cm Wokpan with Lid – Non-Stick, All Hobs + Induction, Thermo-Signal™ Technology</t>
-  </si>
-  <si>
-    <t>32cm</t>
-  </si>
-  <si>
-    <t>https://img.srewardscentre.com.my/image/e526ced590e34e94a2d7916f8c9eb422.jpg?x-oss-process=image/resize,m_pad,w_1082,h_1082</t>
   </si>
 </sst>
 </file>
@@ -1883,7 +1883,7 @@
     <numFmt numFmtId="180" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="[$RM-4409]#,##0.00"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1893,19 +1893,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1957,21 +1944,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2113,7 +2085,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2212,12 +2184,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2303,12 +2269,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2516,138 +2476,138 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2657,143 +2617,122 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="3" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="3" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="6" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="6" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="7" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="3" borderId="1" xfId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="6">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -3331,8 +3270,8 @@
   <sheetPr/>
   <dimension ref="A1:I178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B157" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85185185185185" defaultRowHeight="14.4"/>
@@ -3343,36 +3282,36 @@
     <col min="4" max="5" width="12.8518518518519" customWidth="1"/>
     <col min="6" max="6" width="11.287037037037" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.5740740740741" customWidth="1"/>
-    <col min="8" max="8" width="46.712962962963" customWidth="1"/>
+    <col min="8" max="8" width="46.712962962963" style="3" customWidth="1"/>
     <col min="9" max="9" width="47" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.6" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="32" t="s">
+      <c r="I1" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3402,7 +3341,7 @@
       <c r="H2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="31" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3422,15 +3361,15 @@
       <c r="E3" s="15">
         <v>27.9</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="9"/>
       <c r="G3" s="10">
         <f t="shared" si="0"/>
         <v>2790</v>
       </c>
-      <c r="H3" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="34" t="s">
+      <c r="H3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="32" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3450,15 +3389,15 @@
       <c r="E4" s="15">
         <v>27.9</v>
       </c>
-      <c r="F4" s="16"/>
+      <c r="F4" s="9"/>
       <c r="G4" s="10">
         <f t="shared" si="0"/>
         <v>2790</v>
       </c>
-      <c r="H4" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="34" t="s">
+      <c r="H4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="32" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3478,15 +3417,15 @@
       <c r="E5" s="15">
         <v>69</v>
       </c>
-      <c r="F5" s="16"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="10">
         <f t="shared" si="0"/>
         <v>6900</v>
       </c>
-      <c r="H5" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="34" t="s">
+      <c r="H5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="32" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3513,10 +3452,10 @@
         <f t="shared" si="0"/>
         <v>2300</v>
       </c>
-      <c r="H6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="34" t="s">
+      <c r="H6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="32" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3524,10 +3463,10 @@
       <c r="A7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="15">
@@ -3536,15 +3475,15 @@
       <c r="E7" s="15">
         <v>97</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="10">
         <f t="shared" si="0"/>
         <v>9700</v>
       </c>
-      <c r="H7" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="34" t="s">
+      <c r="H7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="32" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3552,7 +3491,7 @@
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -3574,18 +3513,18 @@
       <c r="H8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="32" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" ht="15.6" spans="1:9">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="8">
@@ -3601,21 +3540,21 @@
         <f t="shared" si="0"/>
         <v>36900</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="34" t="s">
+      <c r="H9" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" ht="15.6" spans="1:9">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="8">
@@ -3631,21 +3570,21 @@
         <f t="shared" si="0"/>
         <v>28900</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="34" t="s">
+      <c r="H10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="32" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:9">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D11" s="8">
@@ -3661,21 +3600,21 @@
         <f t="shared" si="0"/>
         <v>14500</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="34" t="s">
+      <c r="H11" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="32" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" ht="15.6" spans="1:9">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="8">
@@ -3684,26 +3623,26 @@
       <c r="E12" s="8">
         <v>169</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="10">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H12" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="34" t="s">
+      <c r="H12" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="32" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" ht="15.6" spans="1:9">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="8">
@@ -3712,26 +3651,26 @@
       <c r="E13" s="8">
         <v>169</v>
       </c>
-      <c r="F13" s="16"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="10">
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="34" t="s">
+      <c r="H13" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="32" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" ht="15.6" spans="1:9">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="8">
@@ -3740,26 +3679,26 @@
       <c r="E14" s="8">
         <v>349</v>
       </c>
-      <c r="F14" s="16"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="10">
         <f t="shared" si="0"/>
         <v>34900</v>
       </c>
-      <c r="H14" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="34" t="s">
+      <c r="H14" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" ht="15.6" spans="1:9">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>57</v>
       </c>
       <c r="D15" s="8">
@@ -3768,26 +3707,26 @@
       <c r="E15" s="8">
         <v>349</v>
       </c>
-      <c r="F15" s="16"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="10">
         <f t="shared" si="0"/>
         <v>34900</v>
       </c>
-      <c r="H15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="34" t="s">
+      <c r="H15" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="32" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" ht="15.6" spans="1:9">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>60</v>
       </c>
       <c r="D16" s="8">
@@ -3796,26 +3735,26 @@
       <c r="E16" s="8">
         <v>559</v>
       </c>
-      <c r="F16" s="16"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="10">
         <f t="shared" si="0"/>
         <v>55900</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="34" t="s">
+      <c r="H16" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" ht="15.6" spans="1:9">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>63</v>
       </c>
       <c r="D17" s="8">
@@ -3824,26 +3763,26 @@
       <c r="E17" s="8">
         <v>559</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="10">
         <f t="shared" si="0"/>
         <v>55900</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="34" t="s">
+      <c r="H17" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="32" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" ht="15.6" spans="1:9">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="8">
@@ -3852,26 +3791,26 @@
       <c r="E18" s="8">
         <v>499</v>
       </c>
-      <c r="F18" s="16"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="10">
         <f t="shared" si="0"/>
         <v>49900</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="34" t="s">
+      <c r="H18" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="32" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="19" ht="15.6" spans="1:9">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>66</v>
       </c>
       <c r="D19" s="8">
@@ -3880,26 +3819,26 @@
       <c r="E19" s="8">
         <v>499</v>
       </c>
-      <c r="F19" s="16"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="10">
         <f t="shared" si="0"/>
         <v>49900</v>
       </c>
-      <c r="H19" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="34" t="s">
+      <c r="H19" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="32" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" ht="15.6" spans="1:9">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D20" s="8">
@@ -3908,26 +3847,26 @@
       <c r="E20" s="8">
         <v>799</v>
       </c>
-      <c r="F20" s="16"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="10">
         <f t="shared" si="0"/>
         <v>79900</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="34" t="s">
+      <c r="H20" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="32" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="21" ht="15.6" spans="1:9">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>71</v>
       </c>
       <c r="D21" s="8">
@@ -3936,15 +3875,15 @@
       <c r="E21" s="8">
         <v>799</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="10">
         <f t="shared" si="0"/>
         <v>79900</v>
       </c>
-      <c r="H21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="34" t="s">
+      <c r="H21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="32" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3964,7 +3903,7 @@
       <c r="E22" s="8">
         <v>169</v>
       </c>
-      <c r="F22" s="16"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="10">
         <f t="shared" si="0"/>
         <v>16900</v>
@@ -3972,7 +3911,7 @@
       <c r="H22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I22" s="34" t="s">
+      <c r="I22" s="32" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3992,7 +3931,7 @@
       <c r="E23" s="8">
         <v>49</v>
       </c>
-      <c r="F23" s="16"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="10">
         <f t="shared" si="0"/>
         <v>4900</v>
@@ -4000,7 +3939,7 @@
       <c r="H23" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="34" t="s">
+      <c r="I23" s="32" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4020,7 +3959,7 @@
       <c r="E24" s="8">
         <v>49</v>
       </c>
-      <c r="F24" s="16"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="10">
         <f t="shared" si="0"/>
         <v>4900</v>
@@ -4028,7 +3967,7 @@
       <c r="H24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I24" s="34" t="s">
+      <c r="I24" s="32" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4048,7 +3987,7 @@
       <c r="E25" s="8">
         <v>39</v>
       </c>
-      <c r="F25" s="16"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="10">
         <f t="shared" si="0"/>
         <v>3900</v>
@@ -4056,7 +3995,7 @@
       <c r="H25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I25" s="34" t="s">
+      <c r="I25" s="32" t="s">
         <v>87</v>
       </c>
     </row>
@@ -4076,7 +4015,7 @@
       <c r="E26" s="8">
         <v>55</v>
       </c>
-      <c r="F26" s="16"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="10">
         <f t="shared" si="0"/>
         <v>5500</v>
@@ -4084,7 +4023,7 @@
       <c r="H26" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="32" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4104,7 +4043,7 @@
       <c r="E27" s="8">
         <v>69</v>
       </c>
-      <c r="F27" s="16"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="10">
         <f t="shared" si="0"/>
         <v>6900</v>
@@ -4112,7 +4051,7 @@
       <c r="H27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I27" s="34" t="s">
+      <c r="I27" s="32" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4132,7 +4071,7 @@
       <c r="E28" s="8">
         <v>79</v>
       </c>
-      <c r="F28" s="16"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="10">
         <f t="shared" si="0"/>
         <v>7900</v>
@@ -4140,7 +4079,7 @@
       <c r="H28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I28" s="34" t="s">
+      <c r="I28" s="32" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4160,20 +4099,20 @@
       <c r="E29" s="15">
         <v>55</v>
       </c>
-      <c r="F29" s="16"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="10">
         <f t="shared" si="0"/>
         <v>5500</v>
       </c>
-      <c r="H29" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I29" s="34" t="s">
+      <c r="H29" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="32" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="30" ht="15.6" spans="1:9">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>98</v>
       </c>
       <c r="B30" s="6" t="s">
@@ -4188,20 +4127,20 @@
       <c r="E30" s="15">
         <v>49</v>
       </c>
-      <c r="F30" s="16"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="10">
         <f t="shared" si="0"/>
         <v>4900</v>
       </c>
-      <c r="H30" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="34" t="s">
+      <c r="H30" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="32" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="31" ht="15.6" spans="1:9">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="21" t="s">
         <v>101</v>
       </c>
       <c r="B31" s="6" t="s">
@@ -4216,26 +4155,26 @@
       <c r="E31" s="15">
         <v>125</v>
       </c>
-      <c r="F31" s="16"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="10">
         <f t="shared" si="0"/>
         <v>12500</v>
       </c>
-      <c r="H31" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I31" s="34" t="s">
+      <c r="H31" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="32" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="32" ht="15.6" spans="1:9">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="22" t="s">
         <v>104</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="19" t="s">
         <v>105</v>
       </c>
       <c r="D32" s="8">
@@ -4251,21 +4190,21 @@
         <f t="shared" si="0"/>
         <v>9300</v>
       </c>
-      <c r="H32" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I32" s="34" t="s">
+      <c r="H32" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="32" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="33" ht="15.6" spans="1:9">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>108</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="19" t="s">
         <v>110</v>
       </c>
       <c r="D33" s="8">
@@ -4274,26 +4213,26 @@
       <c r="E33" s="8">
         <v>16.9</v>
       </c>
-      <c r="F33" s="16"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="10">
         <f t="shared" si="0"/>
         <v>1690</v>
       </c>
-      <c r="H33" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I33" s="34" t="s">
+      <c r="H33" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="32" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="34" ht="15.6" spans="1:9">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>112</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="19" t="s">
         <v>113</v>
       </c>
       <c r="D34" s="8">
@@ -4302,26 +4241,26 @@
       <c r="E34" s="8">
         <v>14.4</v>
       </c>
-      <c r="F34" s="16"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="10">
         <f t="shared" si="0"/>
         <v>1440</v>
       </c>
-      <c r="H34" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I34" s="34" t="s">
+      <c r="H34" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="35" ht="15.6" spans="1:9">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
         <v>115</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="19" t="s">
         <v>116</v>
       </c>
       <c r="D35" s="8">
@@ -4330,20 +4269,20 @@
       <c r="E35" s="8">
         <v>15.5</v>
       </c>
-      <c r="F35" s="16"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="10">
         <f t="shared" si="0"/>
         <v>1550</v>
       </c>
-      <c r="H35" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="34" t="s">
+      <c r="H35" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="32" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="36" ht="15.6" spans="1:9">
-      <c r="A36" s="24" t="s">
+      <c r="A36" s="5" t="s">
         <v>118</v>
       </c>
       <c r="B36" s="6" t="s">
@@ -4368,18 +4307,18 @@
       <c r="H36" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I36" s="34" t="s">
+      <c r="I36" s="31" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="37" ht="15.6" spans="1:9">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="20" t="s">
         <v>123</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="19" t="s">
         <v>125</v>
       </c>
       <c r="D37" s="8">
@@ -4395,10 +4334,10 @@
         <f t="shared" si="0"/>
         <v>990</v>
       </c>
-      <c r="H37" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="34" t="s">
+      <c r="H37" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="32" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4418,7 +4357,7 @@
       <c r="E38" s="8">
         <v>199</v>
       </c>
-      <c r="F38" s="16"/>
+      <c r="F38" s="9"/>
       <c r="G38" s="10">
         <f t="shared" si="0"/>
         <v>19900</v>
@@ -4426,7 +4365,7 @@
       <c r="H38" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I38" s="34" t="s">
+      <c r="I38" s="32" t="s">
         <v>131</v>
       </c>
     </row>
@@ -4456,7 +4395,7 @@
       <c r="H39" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I39" s="34" t="s">
+      <c r="I39" s="32" t="s">
         <v>135</v>
       </c>
     </row>
@@ -4486,12 +4425,12 @@
       <c r="H40" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I40" s="34" t="s">
+      <c r="I40" s="32" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="41" ht="15.6" spans="1:9">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="23" t="s">
         <v>139</v>
       </c>
       <c r="B41" s="6" t="s">
@@ -4516,7 +4455,7 @@
       <c r="H41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I41" s="34" t="s">
+      <c r="I41" s="32" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4546,7 +4485,7 @@
       <c r="H42" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I42" s="34" t="s">
+      <c r="I42" s="32" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4576,7 +4515,7 @@
       <c r="H43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I43" s="34" t="s">
+      <c r="I43" s="32" t="s">
         <v>148</v>
       </c>
     </row>
@@ -4606,18 +4545,18 @@
       <c r="H44" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I44" s="34" t="s">
+      <c r="I44" s="32" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="45" ht="15.6" spans="1:9">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="20" t="s">
         <v>153</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="19" t="s">
         <v>154</v>
       </c>
       <c r="D45" s="8">
@@ -4633,10 +4572,10 @@
         <f t="shared" si="0"/>
         <v>19900</v>
       </c>
-      <c r="H45" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="34" t="s">
+      <c r="H45" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" s="32" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4647,7 +4586,7 @@
       <c r="B46" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="24" t="s">
         <v>157</v>
       </c>
       <c r="D46" s="15">
@@ -4663,10 +4602,10 @@
         <f t="shared" si="0"/>
         <v>19900</v>
       </c>
-      <c r="H46" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="34" t="s">
+      <c r="H46" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="32" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4677,7 +4616,7 @@
       <c r="B47" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="24" t="s">
         <v>160</v>
       </c>
       <c r="D47" s="15">
@@ -4693,21 +4632,21 @@
         <f t="shared" si="0"/>
         <v>19900</v>
       </c>
-      <c r="H47" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I47" s="34" t="s">
+      <c r="H47" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="32" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="48" ht="15.6" spans="1:9">
-      <c r="A48" s="21" t="s">
+      <c r="A48" s="20" t="s">
         <v>163</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="19" t="s">
         <v>164</v>
       </c>
       <c r="D48" s="8">
@@ -4723,21 +4662,21 @@
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H48" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I48" s="34" t="s">
+      <c r="H48" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" s="32" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="49" ht="15.6" spans="1:9">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="20" t="s">
         <v>166</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="19" t="s">
         <v>167</v>
       </c>
       <c r="D49" s="8">
@@ -4753,10 +4692,10 @@
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H49" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" s="34" t="s">
+      <c r="H49" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" s="32" t="s">
         <v>168</v>
       </c>
     </row>
@@ -4767,7 +4706,7 @@
       <c r="B50" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="24" t="s">
         <v>140</v>
       </c>
       <c r="D50" s="15">
@@ -4783,10 +4722,10 @@
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H50" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" s="34" t="s">
+      <c r="H50" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="32" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4797,7 +4736,7 @@
       <c r="B51" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="24" t="s">
         <v>173</v>
       </c>
       <c r="D51" s="15">
@@ -4813,21 +4752,21 @@
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H51" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" s="34" t="s">
+      <c r="H51" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" s="32" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="52" ht="15.6" spans="1:9">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="20" t="s">
         <v>174</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="19" t="s">
         <v>144</v>
       </c>
       <c r="D52" s="8">
@@ -4843,10 +4782,10 @@
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H52" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="34" t="s">
+      <c r="H52" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" s="32" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4857,7 +4796,7 @@
       <c r="B53" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="24" t="s">
         <v>177</v>
       </c>
       <c r="D53" s="15">
@@ -4873,21 +4812,21 @@
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H53" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" s="34" t="s">
+      <c r="H53" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" s="32" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="54" ht="15.6" spans="1:9">
-      <c r="A54" s="21" t="s">
+      <c r="A54" s="20" t="s">
         <v>180</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="19" t="s">
         <v>181</v>
       </c>
       <c r="D54" s="8">
@@ -4903,21 +4842,21 @@
         <f t="shared" si="0"/>
         <v>23900</v>
       </c>
-      <c r="H54" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" s="34" t="s">
+      <c r="H54" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" s="32" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="55" ht="15.6" spans="1:9">
-      <c r="A55" s="21" t="s">
+      <c r="A55" s="20" t="s">
         <v>183</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="19" t="s">
         <v>181</v>
       </c>
       <c r="D55" s="8">
@@ -4933,21 +4872,21 @@
         <f t="shared" si="0"/>
         <v>23900</v>
       </c>
-      <c r="H55" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" s="34" t="s">
+      <c r="H55" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="32" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="56" ht="15.6" spans="1:9">
-      <c r="A56" s="21" t="s">
+      <c r="A56" s="20" t="s">
         <v>185</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="19" t="s">
         <v>181</v>
       </c>
       <c r="D56" s="8">
@@ -4963,21 +4902,21 @@
         <f t="shared" si="0"/>
         <v>23900</v>
       </c>
-      <c r="H56" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" s="34" t="s">
+      <c r="H56" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" s="32" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="57" ht="15.6" spans="1:9">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="25" t="s">
         <v>187</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="24" t="s">
         <v>188</v>
       </c>
       <c r="D57" s="15">
@@ -4993,21 +4932,21 @@
         <f t="shared" si="0"/>
         <v>25900</v>
       </c>
-      <c r="H57" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" s="34" t="s">
+      <c r="H57" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" s="32" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="58" ht="15.6" spans="1:9">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="20" t="s">
         <v>190</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="19" t="s">
         <v>191</v>
       </c>
       <c r="D58" s="8">
@@ -5023,21 +4962,21 @@
         <f t="shared" si="0"/>
         <v>14900</v>
       </c>
-      <c r="H58" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" s="34" t="s">
+      <c r="H58" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" s="32" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="59" ht="15.6" spans="1:9">
-      <c r="A59" s="21" t="s">
+      <c r="A59" s="20" t="s">
         <v>194</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C59" s="19" t="s">
         <v>195</v>
       </c>
       <c r="D59" s="8">
@@ -5053,21 +4992,21 @@
         <f t="shared" si="0"/>
         <v>16900</v>
       </c>
-      <c r="H59" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" s="34" t="s">
+      <c r="H59" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="32" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="60" ht="15.6" spans="1:9">
-      <c r="A60" s="21" t="s">
+      <c r="A60" s="20" t="s">
         <v>197</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="19" t="s">
         <v>198</v>
       </c>
       <c r="D60" s="8">
@@ -5083,21 +5022,21 @@
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H60" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" s="34" t="s">
+      <c r="H60" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="32" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="61" ht="15.6" spans="1:9">
-      <c r="A61" s="21" t="s">
+      <c r="A61" s="20" t="s">
         <v>199</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C61" s="19" t="s">
         <v>200</v>
       </c>
       <c r="D61" s="8">
@@ -5113,40 +5052,40 @@
         <f t="shared" si="0"/>
         <v>15900</v>
       </c>
-      <c r="H61" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" s="34" t="s">
+      <c r="H61" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="32" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="62" ht="15.6" spans="1:9">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="26" t="s">
         <v>202</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="D62" s="30">
+      <c r="D62" s="28">
         <v>499</v>
       </c>
-      <c r="E62" s="30">
+      <c r="E62" s="28">
         <v>189</v>
       </c>
-      <c r="F62" s="31" t="s">
+      <c r="F62" s="29" t="s">
         <v>141</v>
       </c>
       <c r="G62" s="10">
         <f t="shared" si="0"/>
         <v>18900</v>
       </c>
-      <c r="H62" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" s="34" t="s">
+      <c r="H62" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="32" t="s">
         <v>152</v>
       </c>
     </row>
@@ -5166,15 +5105,15 @@
       <c r="E63" s="15">
         <v>319</v>
       </c>
-      <c r="F63" s="16"/>
+      <c r="F63" s="9"/>
       <c r="G63" s="10">
         <f t="shared" si="0"/>
         <v>31900</v>
       </c>
-      <c r="H63" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I63" s="34" t="s">
+      <c r="H63" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="32" t="s">
         <v>206</v>
       </c>
     </row>
@@ -5194,26 +5133,26 @@
       <c r="E64" s="15">
         <v>499</v>
       </c>
-      <c r="F64" s="16"/>
+      <c r="F64" s="9"/>
       <c r="G64" s="10">
         <f t="shared" si="0"/>
         <v>49900</v>
       </c>
-      <c r="H64" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I64" s="34" t="s">
+      <c r="H64" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="32" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="65" ht="15.6" spans="1:9">
-      <c r="A65" s="21" t="s">
+      <c r="A65" s="20" t="s">
         <v>210</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C65" s="19" t="s">
         <v>212</v>
       </c>
       <c r="D65" s="8">
@@ -5229,10 +5168,10 @@
         <f t="shared" si="0"/>
         <v>1850</v>
       </c>
-      <c r="H65" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I65" s="34" t="s">
+      <c r="H65" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" s="32" t="s">
         <v>214</v>
       </c>
     </row>
@@ -5259,18 +5198,18 @@
       <c r="H66" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I66" s="34" t="s">
+      <c r="I66" s="32" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="67" ht="15.6" spans="1:9">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="20" t="s">
         <v>219</v>
       </c>
-      <c r="B67" s="17" t="s">
+      <c r="B67" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="19" t="s">
         <v>221</v>
       </c>
       <c r="D67" s="8">
@@ -5286,21 +5225,21 @@
         <f t="shared" si="1"/>
         <v>3900</v>
       </c>
-      <c r="H67" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I67" s="34" t="s">
+      <c r="H67" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="32" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="68" ht="15.6" spans="1:9">
-      <c r="A68" s="21" t="s">
+      <c r="A68" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="19" t="s">
         <v>225</v>
       </c>
       <c r="D68" s="8">
@@ -5316,21 +5255,21 @@
         <f t="shared" si="1"/>
         <v>4900</v>
       </c>
-      <c r="H68" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I68" s="34" t="s">
+      <c r="H68" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="32" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="69" ht="15.6" spans="1:9">
-      <c r="A69" s="21" t="s">
+      <c r="A69" s="20" t="s">
         <v>228</v>
       </c>
-      <c r="B69" s="17" t="s">
+      <c r="B69" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="19" t="s">
         <v>229</v>
       </c>
       <c r="D69" s="8">
@@ -5339,15 +5278,15 @@
       <c r="E69" s="8">
         <v>29</v>
       </c>
-      <c r="F69" s="16"/>
+      <c r="F69" s="9"/>
       <c r="G69" s="10">
         <f t="shared" si="1"/>
         <v>2900</v>
       </c>
-      <c r="H69" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="34" t="s">
+      <c r="H69" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="32" t="s">
         <v>230</v>
       </c>
     </row>
@@ -5355,7 +5294,7 @@
       <c r="A70" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B70" s="17" t="s">
+      <c r="B70" s="16" t="s">
         <v>220</v>
       </c>
       <c r="C70" s="14" t="s">
@@ -5374,10 +5313,10 @@
         <f t="shared" si="1"/>
         <v>2490</v>
       </c>
-      <c r="H70" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I70" s="34" t="s">
+      <c r="H70" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" s="32" t="s">
         <v>234</v>
       </c>
     </row>
@@ -5385,7 +5324,7 @@
       <c r="A71" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B71" s="17" t="s">
+      <c r="B71" s="16" t="s">
         <v>220</v>
       </c>
       <c r="C71" s="14" t="s">
@@ -5404,10 +5343,10 @@
         <f t="shared" si="1"/>
         <v>2090</v>
       </c>
-      <c r="H71" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I71" s="34" t="s">
+      <c r="H71" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="32" t="s">
         <v>238</v>
       </c>
     </row>
@@ -5437,7 +5376,7 @@
       <c r="H72" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I72" s="34" t="s">
+      <c r="I72" s="32" t="s">
         <v>243</v>
       </c>
     </row>
@@ -5467,18 +5406,18 @@
       <c r="H73" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I73" s="34" t="s">
+      <c r="I73" s="32" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="74" ht="15.6" spans="1:9">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="20" t="s">
         <v>248</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="19" t="s">
         <v>249</v>
       </c>
       <c r="D74" s="8">
@@ -5487,26 +5426,26 @@
       <c r="E74" s="8">
         <v>115</v>
       </c>
-      <c r="F74" s="16"/>
+      <c r="F74" s="9"/>
       <c r="G74" s="10">
         <f t="shared" si="1"/>
         <v>11500</v>
       </c>
-      <c r="H74" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I74" s="34" t="s">
+      <c r="H74" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="32" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="75" ht="15.6" spans="1:9">
-      <c r="A75" s="21" t="s">
+      <c r="A75" s="20" t="s">
         <v>251</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C75" s="19" t="s">
         <v>253</v>
       </c>
       <c r="D75" s="8">
@@ -5522,21 +5461,21 @@
         <f t="shared" si="1"/>
         <v>1190</v>
       </c>
-      <c r="H75" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I75" s="34" t="s">
+      <c r="H75" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="32" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="76" ht="15.6" spans="1:9">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="19" t="s">
         <v>258</v>
       </c>
       <c r="D76" s="8">
@@ -5552,21 +5491,21 @@
         <f t="shared" si="1"/>
         <v>12900</v>
       </c>
-      <c r="H76" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I76" s="34" t="s">
+      <c r="H76" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" s="32" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="77" ht="15.6" spans="1:9">
-      <c r="A77" s="21" t="s">
+      <c r="A77" s="20" t="s">
         <v>260</v>
       </c>
-      <c r="B77" s="17" t="s">
+      <c r="B77" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C77" s="19" t="s">
         <v>261</v>
       </c>
       <c r="D77" s="8">
@@ -5575,26 +5514,26 @@
       <c r="E77" s="8">
         <v>99</v>
       </c>
-      <c r="F77" s="16"/>
+      <c r="F77" s="9"/>
       <c r="G77" s="10">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H77" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77" s="33" t="s">
+      <c r="H77" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="31" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="78" ht="15.6" spans="1:9">
-      <c r="A78" s="21" t="s">
+      <c r="A78" s="20" t="s">
         <v>263</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C78" s="19" t="s">
         <v>265</v>
       </c>
       <c r="D78" s="15">
@@ -5603,26 +5542,26 @@
       <c r="E78" s="8">
         <v>89</v>
       </c>
-      <c r="F78" s="16"/>
+      <c r="F78" s="9"/>
       <c r="G78" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H78" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I78" s="34" t="s">
+      <c r="H78" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="32" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="79" ht="15.6" spans="1:9">
-      <c r="A79" s="21" t="s">
+      <c r="A79" s="20" t="s">
         <v>267</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C79" s="19" t="s">
         <v>268</v>
       </c>
       <c r="D79" s="15">
@@ -5631,26 +5570,26 @@
       <c r="E79" s="8">
         <v>89</v>
       </c>
-      <c r="F79" s="16"/>
+      <c r="F79" s="9"/>
       <c r="G79" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H79" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I79" s="34" t="s">
+      <c r="H79" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="32" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="80" ht="15.6" spans="1:9">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="20" t="s">
         <v>270</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="C80" s="19" t="s">
         <v>271</v>
       </c>
       <c r="D80" s="15">
@@ -5659,26 +5598,26 @@
       <c r="E80" s="8">
         <v>89</v>
       </c>
-      <c r="F80" s="16"/>
+      <c r="F80" s="9"/>
       <c r="G80" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H80" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I80" s="34" t="s">
+      <c r="H80" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" s="32" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="81" ht="15.6" spans="1:9">
-      <c r="A81" s="21" t="s">
+      <c r="A81" s="20" t="s">
         <v>272</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C81" s="19" t="s">
         <v>273</v>
       </c>
       <c r="D81" s="15">
@@ -5687,26 +5626,26 @@
       <c r="E81" s="8">
         <v>89</v>
       </c>
-      <c r="F81" s="16"/>
+      <c r="F81" s="9"/>
       <c r="G81" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H81" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I81" s="34" t="s">
+      <c r="H81" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" s="32" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="82" ht="15.6" spans="1:9">
-      <c r="A82" s="21" t="s">
+      <c r="A82" s="20" t="s">
         <v>274</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="C82" s="19" t="s">
         <v>276</v>
       </c>
       <c r="D82" s="8">
@@ -5715,26 +5654,26 @@
       <c r="E82" s="8">
         <v>18.5</v>
       </c>
-      <c r="F82" s="16"/>
+      <c r="F82" s="9"/>
       <c r="G82" s="10">
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="H82" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I82" s="34" t="s">
+      <c r="H82" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" s="32" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="83" ht="15.6" spans="1:9">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="20" t="s">
         <v>278</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C83" s="19" t="s">
         <v>279</v>
       </c>
       <c r="D83" s="8">
@@ -5743,26 +5682,26 @@
       <c r="E83" s="8">
         <v>18</v>
       </c>
-      <c r="F83" s="16"/>
+      <c r="F83" s="9"/>
       <c r="G83" s="10">
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-      <c r="H83" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I83" s="34" t="s">
+      <c r="H83" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" s="32" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="84" ht="15.6" spans="1:9">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="20" t="s">
         <v>281</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="C84" s="19" t="s">
         <v>283</v>
       </c>
       <c r="D84" s="8">
@@ -5778,21 +5717,21 @@
         <f t="shared" si="1"/>
         <v>570</v>
       </c>
-      <c r="H84" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I84" s="34" t="s">
+      <c r="H84" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" s="32" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="85" ht="15.6" spans="1:9">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="20" t="s">
         <v>286</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C85" s="19" t="s">
         <v>287</v>
       </c>
       <c r="D85" s="8">
@@ -5808,21 +5747,21 @@
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="H85" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I85" s="34" t="s">
+      <c r="H85" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="32" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="86" ht="15.6" spans="1:9">
-      <c r="A86" s="21" t="s">
+      <c r="A86" s="20" t="s">
         <v>289</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="C86" s="19" t="s">
         <v>291</v>
       </c>
       <c r="D86" s="8">
@@ -5838,10 +5777,10 @@
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-      <c r="H86" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I86" s="34" t="s">
+      <c r="H86" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="32" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5861,7 +5800,7 @@
       <c r="E87" s="8">
         <v>769</v>
       </c>
-      <c r="F87" s="16"/>
+      <c r="F87" s="9"/>
       <c r="G87" s="10">
         <f t="shared" si="1"/>
         <v>76900</v>
@@ -5869,18 +5808,18 @@
       <c r="H87" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I87" s="34" t="s">
+      <c r="I87" s="32" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="88" ht="15.6" spans="1:9">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="20" t="s">
         <v>298</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="C88" s="19" t="s">
         <v>299</v>
       </c>
       <c r="D88" s="8">
@@ -5889,26 +5828,26 @@
       <c r="E88" s="8">
         <v>599</v>
       </c>
-      <c r="F88" s="16"/>
+      <c r="F88" s="9"/>
       <c r="G88" s="10">
         <f t="shared" si="1"/>
         <v>59900</v>
       </c>
-      <c r="H88" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I88" s="34" t="s">
+      <c r="H88" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="32" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="89" ht="15.6" spans="1:9">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="20" t="s">
         <v>301</v>
       </c>
       <c r="B89" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="C89" s="19" t="s">
         <v>302</v>
       </c>
       <c r="D89" s="8">
@@ -5917,26 +5856,26 @@
       <c r="E89" s="8">
         <v>599</v>
       </c>
-      <c r="F89" s="16"/>
+      <c r="F89" s="9"/>
       <c r="G89" s="10">
         <f t="shared" si="1"/>
         <v>59900</v>
       </c>
-      <c r="H89" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I89" s="34" t="s">
+      <c r="H89" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" s="32" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="90" ht="15.6" spans="1:9">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="20" t="s">
         <v>304</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="C90" s="19" t="s">
         <v>305</v>
       </c>
       <c r="D90" s="8">
@@ -5945,26 +5884,26 @@
       <c r="E90" s="8">
         <v>1199</v>
       </c>
-      <c r="F90" s="16"/>
+      <c r="F90" s="9"/>
       <c r="G90" s="10">
         <f t="shared" si="1"/>
         <v>119900</v>
       </c>
-      <c r="H90" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I90" s="34" t="s">
+      <c r="H90" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="32" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="91" ht="15.6" spans="1:9">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="20" t="s">
         <v>307</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="C91" s="19" t="s">
         <v>308</v>
       </c>
       <c r="D91" s="8">
@@ -5973,26 +5912,26 @@
       <c r="E91" s="8">
         <v>1699</v>
       </c>
-      <c r="F91" s="16"/>
+      <c r="F91" s="9"/>
       <c r="G91" s="10">
         <f t="shared" si="1"/>
         <v>169900</v>
       </c>
-      <c r="H91" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I91" s="34" t="s">
+      <c r="H91" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" s="32" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="92" ht="15.6" spans="1:9">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="20" t="s">
         <v>310</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="C92" s="19" t="s">
         <v>311</v>
       </c>
       <c r="D92" s="8">
@@ -6001,26 +5940,26 @@
       <c r="E92" s="8">
         <v>79</v>
       </c>
-      <c r="F92" s="16"/>
+      <c r="F92" s="9"/>
       <c r="G92" s="10">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="H92" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I92" s="34" t="s">
+      <c r="H92" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="32" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="93" ht="15.6" spans="1:9">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="20" t="s">
         <v>313</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="C93" s="19" t="s">
         <v>314</v>
       </c>
       <c r="D93" s="8">
@@ -6029,15 +5968,15 @@
       <c r="E93" s="8">
         <v>79</v>
       </c>
-      <c r="F93" s="16"/>
+      <c r="F93" s="9"/>
       <c r="G93" s="10">
         <f t="shared" si="1"/>
         <v>7900</v>
       </c>
-      <c r="H93" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I93" s="34" t="s">
+      <c r="H93" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" s="32" t="s">
         <v>312</v>
       </c>
     </row>
@@ -6045,10 +5984,10 @@
       <c r="A94" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="B94" s="17" t="s">
+      <c r="B94" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="17" t="s">
         <v>317</v>
       </c>
       <c r="D94" s="15">
@@ -6064,21 +6003,21 @@
         <f t="shared" si="1"/>
         <v>10900</v>
       </c>
-      <c r="H94" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I94" s="34" t="s">
+      <c r="H94" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="32" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="95" ht="15.6" spans="1:9">
-      <c r="A95" s="35" t="s">
+      <c r="A95" s="33" t="s">
         <v>320</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B95" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="C95" s="19" t="s">
         <v>321</v>
       </c>
       <c r="D95" s="8">
@@ -6094,10 +6033,10 @@
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H95" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I95" s="34" t="s">
+      <c r="H95" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="32" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6127,7 +6066,7 @@
       <c r="H96" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I96" s="34" t="s">
+      <c r="I96" s="32" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6157,7 +6096,7 @@
       <c r="H97" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I97" s="33" t="s">
+      <c r="I97" s="31" t="s">
         <v>331</v>
       </c>
     </row>
@@ -6187,7 +6126,7 @@
       <c r="H98" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I98" s="34" t="s">
+      <c r="I98" s="32" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6217,7 +6156,7 @@
       <c r="H99" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I99" s="34" t="s">
+      <c r="I99" s="32" t="s">
         <v>335</v>
       </c>
     </row>
@@ -6247,7 +6186,7 @@
       <c r="H100" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I100" s="34" t="s">
+      <c r="I100" s="32" t="s">
         <v>341</v>
       </c>
     </row>
@@ -6277,7 +6216,7 @@
       <c r="H101" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I101" s="34" t="s">
+      <c r="I101" s="32" t="s">
         <v>341</v>
       </c>
     </row>
@@ -6307,7 +6246,7 @@
       <c r="H102" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I102" s="33" t="s">
+      <c r="I102" s="31" t="s">
         <v>346</v>
       </c>
     </row>
@@ -6337,7 +6276,7 @@
       <c r="H103" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I103" s="37" t="s">
+      <c r="I103" s="35" t="s">
         <v>349</v>
       </c>
     </row>
@@ -6357,7 +6296,7 @@
       <c r="E104" s="8">
         <v>177</v>
       </c>
-      <c r="F104" s="16"/>
+      <c r="F104" s="9"/>
       <c r="G104" s="10">
         <f t="shared" si="1"/>
         <v>17700</v>
@@ -6365,7 +6304,7 @@
       <c r="H104" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I104" s="34" t="s">
+      <c r="I104" s="32" t="s">
         <v>353</v>
       </c>
     </row>
@@ -6385,15 +6324,15 @@
       <c r="E105" s="15">
         <v>329</v>
       </c>
-      <c r="F105" s="16"/>
+      <c r="F105" s="9"/>
       <c r="G105" s="10">
         <f t="shared" si="1"/>
         <v>32900</v>
       </c>
-      <c r="H105" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I105" s="34" t="s">
+      <c r="H105" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I105" s="32" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6413,20 +6352,20 @@
       <c r="E106" s="8">
         <v>459</v>
       </c>
-      <c r="F106" s="16"/>
+      <c r="F106" s="9"/>
       <c r="G106" s="10">
         <f t="shared" si="1"/>
         <v>45900</v>
       </c>
-      <c r="H106" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I106" s="34" t="s">
+      <c r="H106" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I106" s="32" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="107" ht="15.6" spans="1:9">
-      <c r="A107" s="21" t="s">
+      <c r="A107" s="20" t="s">
         <v>361</v>
       </c>
       <c r="B107" s="13" t="s">
@@ -6441,15 +6380,15 @@
       <c r="E107" s="8">
         <v>459</v>
       </c>
-      <c r="F107" s="16"/>
+      <c r="F107" s="9"/>
       <c r="G107" s="10">
         <f t="shared" si="1"/>
         <v>45900</v>
       </c>
-      <c r="H107" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I107" s="34" t="s">
+      <c r="H107" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="32" t="s">
         <v>360</v>
       </c>
     </row>
@@ -6457,10 +6396,10 @@
       <c r="A108" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="B108" s="17" t="s">
+      <c r="B108" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="C108" s="26" t="s">
+      <c r="C108" s="24" t="s">
         <v>365</v>
       </c>
       <c r="D108" s="15">
@@ -6469,15 +6408,15 @@
       <c r="E108" s="15">
         <v>99</v>
       </c>
-      <c r="F108" s="16"/>
+      <c r="F108" s="9"/>
       <c r="G108" s="10">
         <f t="shared" si="1"/>
         <v>9900</v>
       </c>
-      <c r="H108" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I108" s="34" t="s">
+      <c r="H108" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I108" s="32" t="s">
         <v>366</v>
       </c>
     </row>
@@ -6507,18 +6446,18 @@
       <c r="H109" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I109" s="34" t="s">
+      <c r="I109" s="32" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="110" ht="15.6" spans="1:9">
-      <c r="A110" s="21" t="s">
+      <c r="A110" s="20" t="s">
         <v>371</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="C110" s="19" t="s">
         <v>372</v>
       </c>
       <c r="D110" s="8">
@@ -6534,21 +6473,21 @@
         <f t="shared" si="1"/>
         <v>18900</v>
       </c>
-      <c r="H110" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I110" s="34" t="s">
+      <c r="H110" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I110" s="32" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="111" ht="15.6" spans="1:9">
-      <c r="A111" s="21" t="s">
+      <c r="A111" s="20" t="s">
         <v>375</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="C111" s="19" t="s">
         <v>376</v>
       </c>
       <c r="D111" s="8">
@@ -6564,10 +6503,10 @@
         <f t="shared" si="1"/>
         <v>10900</v>
       </c>
-      <c r="H111" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I111" s="34" t="s">
+      <c r="H111" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I111" s="32" t="s">
         <v>378</v>
       </c>
     </row>
@@ -6587,7 +6526,7 @@
       <c r="E112" s="8">
         <v>105</v>
       </c>
-      <c r="F112" s="16"/>
+      <c r="F112" s="9"/>
       <c r="G112" s="10">
         <f t="shared" si="1"/>
         <v>10500</v>
@@ -6595,18 +6534,18 @@
       <c r="H112" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I112" s="34" t="s">
+      <c r="I112" s="32" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="113" ht="15.6" spans="1:9">
-      <c r="A113" s="21" t="s">
+      <c r="A113" s="20" t="s">
         <v>383</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C113" s="20" t="s">
+      <c r="C113" s="19" t="s">
         <v>384</v>
       </c>
       <c r="D113" s="8">
@@ -6615,26 +6554,26 @@
       <c r="E113" s="8">
         <v>84</v>
       </c>
-      <c r="F113" s="16"/>
+      <c r="F113" s="9"/>
       <c r="G113" s="10">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
-      <c r="H113" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I113" s="34" t="s">
+      <c r="H113" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" s="32" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="114" ht="15.6" spans="1:9">
-      <c r="A114" s="21" t="s">
+      <c r="A114" s="20" t="s">
         <v>386</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C114" s="20" t="s">
+      <c r="C114" s="19" t="s">
         <v>387</v>
       </c>
       <c r="D114" s="8">
@@ -6643,26 +6582,26 @@
       <c r="E114" s="8">
         <v>84</v>
       </c>
-      <c r="F114" s="16"/>
+      <c r="F114" s="9"/>
       <c r="G114" s="10">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
-      <c r="H114" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I114" s="34" t="s">
+      <c r="H114" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I114" s="32" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="115" ht="15.6" spans="1:9">
-      <c r="A115" s="21" t="s">
+      <c r="A115" s="20" t="s">
         <v>389</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="19" t="s">
         <v>390</v>
       </c>
       <c r="D115" s="8">
@@ -6671,15 +6610,15 @@
       <c r="E115" s="8">
         <v>84</v>
       </c>
-      <c r="F115" s="16"/>
+      <c r="F115" s="9"/>
       <c r="G115" s="10">
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
-      <c r="H115" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I115" s="34" t="s">
+      <c r="H115" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="32" t="s">
         <v>391</v>
       </c>
     </row>
@@ -6696,29 +6635,29 @@
       <c r="D116" s="15">
         <v>106</v>
       </c>
-      <c r="E116" s="36">
+      <c r="E116" s="34">
         <v>104</v>
       </c>
-      <c r="F116" s="16"/>
+      <c r="F116" s="9"/>
       <c r="G116" s="10">
         <f t="shared" si="1"/>
         <v>10400</v>
       </c>
-      <c r="H116" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I116" s="34" t="s">
+      <c r="H116" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I116" s="32" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="117" ht="15.6" spans="1:9">
-      <c r="A117" s="21" t="s">
+      <c r="A117" s="20" t="s">
         <v>395</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C117" s="20" t="s">
+      <c r="C117" s="19" t="s">
         <v>397</v>
       </c>
       <c r="D117" s="8">
@@ -6734,21 +6673,21 @@
         <f t="shared" si="1"/>
         <v>860</v>
       </c>
-      <c r="H117" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I117" s="34" t="s">
+      <c r="H117" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" s="32" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="118" ht="15.6" spans="1:9">
-      <c r="A118" s="21" t="s">
+      <c r="A118" s="20" t="s">
         <v>399</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C118" s="20" t="s">
+      <c r="C118" s="19" t="s">
         <v>400</v>
       </c>
       <c r="D118" s="8">
@@ -6764,21 +6703,21 @@
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="H118" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I118" s="34" t="s">
+      <c r="H118" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" s="32" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="119" ht="15.6" spans="1:9">
-      <c r="A119" s="21" t="s">
+      <c r="A119" s="20" t="s">
         <v>403</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C119" s="20" t="s">
+      <c r="C119" s="19" t="s">
         <v>404</v>
       </c>
       <c r="D119" s="8">
@@ -6794,21 +6733,21 @@
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="H119" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I119" s="34" t="s">
+      <c r="H119" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I119" s="32" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="120" ht="15.6" spans="1:9">
-      <c r="A120" s="21" t="s">
+      <c r="A120" s="20" t="s">
         <v>406</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="C120" s="20" t="s">
+      <c r="C120" s="19" t="s">
         <v>407</v>
       </c>
       <c r="D120" s="8">
@@ -6824,21 +6763,21 @@
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-      <c r="H120" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I120" s="34" t="s">
+      <c r="H120" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" s="32" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="121" ht="15.6" spans="1:9">
-      <c r="A121" s="21" t="s">
+      <c r="A121" s="20" t="s">
         <v>409</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="C121" s="20" t="s">
+      <c r="C121" s="19" t="s">
         <v>411</v>
       </c>
       <c r="D121" s="8">
@@ -6847,110 +6786,110 @@
       <c r="E121" s="8">
         <v>12.5</v>
       </c>
-      <c r="F121" s="16"/>
+      <c r="F121" s="9"/>
       <c r="G121" s="10">
         <f t="shared" si="1"/>
         <v>1250</v>
       </c>
-      <c r="H121" s="17" t="s">
+      <c r="H121" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="I121" s="34" t="s">
+      <c r="I121" s="32" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="122" ht="15.6" spans="1:9">
-      <c r="A122" s="21" t="s">
+      <c r="A122" s="20" t="s">
         <v>414</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="17" t="s">
         <v>416</v>
       </c>
       <c r="D122" s="15">
         <v>69</v>
       </c>
-      <c r="E122" s="36">
+      <c r="E122" s="34">
         <v>69</v>
       </c>
-      <c r="F122" s="16"/>
+      <c r="F122" s="9"/>
       <c r="G122" s="10">
         <f t="shared" si="1"/>
         <v>6900</v>
       </c>
-      <c r="H122" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I122" s="34" t="s">
+      <c r="H122" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" s="32" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="123" ht="15.6" spans="1:9">
-      <c r="A123" s="21" t="s">
+      <c r="A123" s="20" t="s">
         <v>418</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C123" s="17" t="s">
         <v>419</v>
       </c>
       <c r="D123" s="15">
         <v>69</v>
       </c>
-      <c r="E123" s="36">
+      <c r="E123" s="34">
         <v>69</v>
       </c>
-      <c r="F123" s="16"/>
+      <c r="F123" s="9"/>
       <c r="G123" s="10">
         <f t="shared" si="1"/>
         <v>6900</v>
       </c>
-      <c r="H123" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I123" s="34" t="s">
+      <c r="H123" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I123" s="32" t="s">
         <v>420</v>
       </c>
     </row>
     <row r="124" ht="15.6" spans="1:9">
-      <c r="A124" s="21" t="s">
+      <c r="A124" s="20" t="s">
         <v>421</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C124" s="18" t="s">
+      <c r="C124" s="17" t="s">
         <v>422</v>
       </c>
       <c r="D124" s="15">
         <v>69</v>
       </c>
-      <c r="E124" s="36">
+      <c r="E124" s="34">
         <v>69</v>
       </c>
-      <c r="F124" s="16"/>
+      <c r="F124" s="9"/>
       <c r="G124" s="10">
         <f t="shared" si="1"/>
         <v>6900</v>
       </c>
-      <c r="H124" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I124" s="34" t="s">
+      <c r="H124" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="32" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="125" ht="15.6" spans="1:9">
-      <c r="A125" s="21" t="s">
+      <c r="A125" s="20" t="s">
         <v>424</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C125" s="20" t="s">
+      <c r="C125" s="19" t="s">
         <v>425</v>
       </c>
       <c r="D125" s="8">
@@ -6959,26 +6898,26 @@
       <c r="E125" s="8">
         <v>89</v>
       </c>
-      <c r="F125" s="16"/>
+      <c r="F125" s="9"/>
       <c r="G125" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H125" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I125" s="34" t="s">
+      <c r="H125" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="32" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="126" ht="15.6" spans="1:9">
-      <c r="A126" s="21" t="s">
+      <c r="A126" s="20" t="s">
         <v>427</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C126" s="20" t="s">
+      <c r="C126" s="19" t="s">
         <v>425</v>
       </c>
       <c r="D126" s="8">
@@ -6987,26 +6926,26 @@
       <c r="E126" s="8">
         <v>89</v>
       </c>
-      <c r="F126" s="16"/>
+      <c r="F126" s="9"/>
       <c r="G126" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H126" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I126" s="34" t="s">
+      <c r="H126" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="32" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="127" ht="15.6" spans="1:9">
-      <c r="A127" s="21" t="s">
+      <c r="A127" s="20" t="s">
         <v>429</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="19" t="s">
         <v>425</v>
       </c>
       <c r="D127" s="8">
@@ -7015,26 +6954,26 @@
       <c r="E127" s="8">
         <v>89</v>
       </c>
-      <c r="F127" s="16"/>
+      <c r="F127" s="9"/>
       <c r="G127" s="10">
         <f t="shared" si="1"/>
         <v>8900</v>
       </c>
-      <c r="H127" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I127" s="34" t="s">
+      <c r="H127" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I127" s="32" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="128" ht="15.6" spans="1:9">
-      <c r="A128" s="21" t="s">
+      <c r="A128" s="20" t="s">
         <v>431</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="C128" s="20" t="s">
+      <c r="C128" s="19" t="s">
         <v>432</v>
       </c>
       <c r="D128" s="8">
@@ -7043,26 +6982,26 @@
       <c r="E128" s="8">
         <v>39.9</v>
       </c>
-      <c r="F128" s="16"/>
+      <c r="F128" s="9"/>
       <c r="G128" s="10">
         <f t="shared" si="1"/>
         <v>3990</v>
       </c>
-      <c r="H128" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I128" s="34" t="s">
+      <c r="H128" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="32" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="129" ht="15.6" spans="1:9">
-      <c r="A129" s="21" t="s">
+      <c r="A129" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="B129" s="17" t="s">
+      <c r="B129" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="C129" s="20" t="s">
+      <c r="C129" s="19" t="s">
         <v>436</v>
       </c>
       <c r="D129" s="8">
@@ -7071,26 +7010,26 @@
       <c r="E129" s="8">
         <v>449</v>
       </c>
-      <c r="F129" s="16"/>
+      <c r="F129" s="9"/>
       <c r="G129" s="10">
         <f t="shared" si="1"/>
         <v>44900</v>
       </c>
-      <c r="H129" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I129" s="34" t="s">
+      <c r="H129" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="32" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="130" ht="15.6" spans="1:9">
-      <c r="A130" s="21" t="s">
+      <c r="A130" s="20" t="s">
         <v>438</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C130" s="20" t="s">
+      <c r="C130" s="19" t="s">
         <v>440</v>
       </c>
       <c r="D130" s="15">
@@ -7099,26 +7038,26 @@
       <c r="E130" s="8">
         <v>79</v>
       </c>
-      <c r="F130" s="16"/>
+      <c r="F130" s="9"/>
       <c r="G130" s="10">
         <f t="shared" ref="G130:G175" si="2">E130*100</f>
         <v>7900</v>
       </c>
-      <c r="H130" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I130" s="34" t="s">
+      <c r="H130" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I130" s="32" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="131" ht="15.6" spans="1:9">
-      <c r="A131" s="21" t="s">
+      <c r="A131" s="20" t="s">
         <v>442</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C131" s="20" t="s">
+      <c r="C131" s="19" t="s">
         <v>443</v>
       </c>
       <c r="D131" s="15">
@@ -7127,26 +7066,26 @@
       <c r="E131" s="8">
         <v>159</v>
       </c>
-      <c r="F131" s="16"/>
+      <c r="F131" s="9"/>
       <c r="G131" s="10">
         <f t="shared" si="2"/>
         <v>15900</v>
       </c>
-      <c r="H131" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I131" s="34" t="s">
+      <c r="H131" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="32" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="132" ht="15.6" spans="1:9">
-      <c r="A132" s="21" t="s">
+      <c r="A132" s="20" t="s">
         <v>445</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C132" s="20" t="s">
+      <c r="C132" s="19" t="s">
         <v>446</v>
       </c>
       <c r="D132" s="15">
@@ -7155,26 +7094,26 @@
       <c r="E132" s="8">
         <v>159</v>
       </c>
-      <c r="F132" s="16"/>
+      <c r="F132" s="9"/>
       <c r="G132" s="10">
         <f t="shared" si="2"/>
         <v>15900</v>
       </c>
-      <c r="H132" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I132" s="34" t="s">
+      <c r="H132" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I132" s="32" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="133" ht="15.6" spans="1:9">
-      <c r="A133" s="21" t="s">
+      <c r="A133" s="20" t="s">
         <v>448</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C133" s="20" t="s">
+      <c r="C133" s="19" t="s">
         <v>449</v>
       </c>
       <c r="D133" s="15">
@@ -7183,26 +7122,26 @@
       <c r="E133" s="8">
         <v>159</v>
       </c>
-      <c r="F133" s="16"/>
+      <c r="F133" s="9"/>
       <c r="G133" s="10">
         <f t="shared" si="2"/>
         <v>15900</v>
       </c>
-      <c r="H133" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I133" s="33" t="s">
+      <c r="H133" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I133" s="31" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="134" ht="15.6" spans="1:9">
-      <c r="A134" s="21" t="s">
+      <c r="A134" s="20" t="s">
         <v>451</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C134" s="20" t="s">
+      <c r="C134" s="19" t="s">
         <v>452</v>
       </c>
       <c r="D134" s="15">
@@ -7211,26 +7150,26 @@
       <c r="E134" s="8">
         <v>159</v>
       </c>
-      <c r="F134" s="16"/>
+      <c r="F134" s="9"/>
       <c r="G134" s="10">
         <f t="shared" si="2"/>
         <v>15900</v>
       </c>
-      <c r="H134" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I134" s="33" t="s">
+      <c r="H134" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I134" s="31" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="135" ht="15.6" spans="1:9">
-      <c r="A135" s="21" t="s">
+      <c r="A135" s="20" t="s">
         <v>454</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C135" s="20" t="s">
+      <c r="C135" s="19" t="s">
         <v>455</v>
       </c>
       <c r="D135" s="15">
@@ -7239,26 +7178,26 @@
       <c r="E135" s="8">
         <v>79</v>
       </c>
-      <c r="F135" s="16"/>
+      <c r="F135" s="9"/>
       <c r="G135" s="10">
         <f t="shared" si="2"/>
         <v>7900</v>
       </c>
-      <c r="H135" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I135" s="33" t="s">
+      <c r="H135" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I135" s="31" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="136" ht="15.6" spans="1:9">
-      <c r="A136" s="21" t="s">
+      <c r="A136" s="20" t="s">
         <v>457</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="C136" s="20" t="s">
+      <c r="C136" s="19" t="s">
         <v>458</v>
       </c>
       <c r="D136" s="15">
@@ -7267,15 +7206,15 @@
       <c r="E136" s="8">
         <v>79</v>
       </c>
-      <c r="F136" s="16"/>
+      <c r="F136" s="9"/>
       <c r="G136" s="10">
         <f t="shared" si="2"/>
         <v>7900</v>
       </c>
-      <c r="H136" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I136" s="33" t="s">
+      <c r="H136" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I136" s="31" t="s">
         <v>459</v>
       </c>
     </row>
@@ -7286,7 +7225,7 @@
       <c r="B137" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="C137" s="38" t="s">
+      <c r="C137" s="36" t="s">
         <v>462</v>
       </c>
       <c r="D137" s="15">
@@ -7295,26 +7234,26 @@
       <c r="E137" s="15">
         <v>279</v>
       </c>
-      <c r="F137" s="16"/>
+      <c r="F137" s="9"/>
       <c r="G137" s="10">
         <f t="shared" si="2"/>
         <v>27900</v>
       </c>
-      <c r="H137" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I137" s="34" t="s">
+      <c r="H137" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I137" s="32" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="138" ht="15.6" spans="1:9">
-      <c r="A138" s="21" t="s">
+      <c r="A138" s="20" t="s">
         <v>464</v>
       </c>
       <c r="B138" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="C138" s="20" t="s">
+      <c r="C138" s="19" t="s">
         <v>465</v>
       </c>
       <c r="D138" s="8">
@@ -7330,21 +7269,21 @@
         <f t="shared" si="2"/>
         <v>16900</v>
       </c>
-      <c r="H138" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I138" s="34" t="s">
+      <c r="H138" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I138" s="32" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="139" ht="15.6" spans="1:9">
-      <c r="A139" s="21" t="s">
+      <c r="A139" s="20" t="s">
         <v>467</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C139" s="20" t="s">
+      <c r="C139" s="19" t="s">
         <v>469</v>
       </c>
       <c r="D139" s="8">
@@ -7353,26 +7292,26 @@
       <c r="E139" s="8">
         <v>8.1</v>
       </c>
-      <c r="F139" s="16"/>
+      <c r="F139" s="9"/>
       <c r="G139" s="10">
         <f t="shared" si="2"/>
         <v>810</v>
       </c>
-      <c r="H139" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I139" s="34" t="s">
+      <c r="H139" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I139" s="32" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="140" ht="15.6" spans="1:9">
-      <c r="A140" s="21" t="s">
+      <c r="A140" s="20" t="s">
         <v>471</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C140" s="20" t="s">
+      <c r="C140" s="19" t="s">
         <v>472</v>
       </c>
       <c r="D140" s="8">
@@ -7381,26 +7320,26 @@
       <c r="E140" s="8">
         <v>3.3</v>
       </c>
-      <c r="F140" s="16"/>
+      <c r="F140" s="9"/>
       <c r="G140" s="10">
         <f t="shared" si="2"/>
         <v>330</v>
       </c>
-      <c r="H140" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I140" s="34" t="s">
+      <c r="H140" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" s="32" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="141" ht="15.6" spans="1:9">
-      <c r="A141" s="21" t="s">
+      <c r="A141" s="20" t="s">
         <v>474</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C141" s="39" t="s">
+      <c r="C141" s="19" t="s">
         <v>475</v>
       </c>
       <c r="D141" s="8">
@@ -7416,10 +7355,10 @@
         <f t="shared" si="2"/>
         <v>1150</v>
       </c>
-      <c r="H141" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I141" s="34" t="s">
+      <c r="H141" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I141" s="32" t="s">
         <v>477</v>
       </c>
     </row>
@@ -7427,7 +7366,7 @@
       <c r="A142" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="B142" s="17" t="s">
+      <c r="B142" s="16" t="s">
         <v>479</v>
       </c>
       <c r="C142" s="7" t="s">
@@ -7446,21 +7385,21 @@
         <f t="shared" si="2"/>
         <v>39900</v>
       </c>
-      <c r="H142" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I142" s="34" t="s">
+      <c r="H142" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I142" s="32" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="143" ht="15.6" spans="1:9">
-      <c r="A143" s="21" t="s">
+      <c r="A143" s="20" t="s">
         <v>483</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="C143" s="20" t="s">
+      <c r="C143" s="19" t="s">
         <v>485</v>
       </c>
       <c r="D143" s="8">
@@ -7476,10 +7415,10 @@
         <f t="shared" si="2"/>
         <v>260</v>
       </c>
-      <c r="H143" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I143" s="34" t="s">
+      <c r="H143" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I143" s="32" t="s">
         <v>487</v>
       </c>
     </row>
@@ -7487,10 +7426,10 @@
       <c r="A144" s="12" t="s">
         <v>488</v>
       </c>
-      <c r="B144" s="17" t="s">
+      <c r="B144" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="C144" s="40" t="s">
+      <c r="C144" s="17" t="s">
         <v>490</v>
       </c>
       <c r="D144" s="15">
@@ -7506,21 +7445,21 @@
         <f t="shared" si="2"/>
         <v>25900</v>
       </c>
-      <c r="H144" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I144" s="34" t="s">
+      <c r="H144" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I144" s="32" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="145" ht="15.6" spans="1:9">
-      <c r="A145" s="21" t="s">
+      <c r="A145" s="20" t="s">
         <v>493</v>
       </c>
-      <c r="B145" s="17" t="s">
+      <c r="B145" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="C145" s="20" t="s">
+      <c r="C145" s="19" t="s">
         <v>494</v>
       </c>
       <c r="D145" s="8">
@@ -7529,26 +7468,26 @@
       <c r="E145" s="8">
         <v>269</v>
       </c>
-      <c r="F145" s="16"/>
+      <c r="F145" s="9"/>
       <c r="G145" s="10">
         <f t="shared" si="2"/>
         <v>26900</v>
       </c>
-      <c r="H145" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I145" s="34" t="s">
+      <c r="H145" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I145" s="32" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="146" ht="15.6" spans="1:9">
-      <c r="A146" s="21" t="s">
+      <c r="A146" s="20" t="s">
         <v>496</v>
       </c>
-      <c r="B146" s="17" t="s">
+      <c r="B146" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="C146" s="20" t="s">
+      <c r="C146" s="19" t="s">
         <v>497</v>
       </c>
       <c r="D146" s="8">
@@ -7564,21 +7503,21 @@
         <f t="shared" si="2"/>
         <v>12900</v>
       </c>
-      <c r="H146" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I146" s="34" t="s">
+      <c r="H146" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I146" s="32" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="147" ht="15.6" spans="1:9">
-      <c r="A147" s="21" t="s">
+      <c r="A147" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="B147" s="17" t="s">
+      <c r="B147" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="C147" s="20" t="s">
+      <c r="C147" s="19" t="s">
         <v>501</v>
       </c>
       <c r="D147" s="8">
@@ -7587,26 +7526,26 @@
       <c r="E147" s="8">
         <v>1499</v>
       </c>
-      <c r="F147" s="16"/>
+      <c r="F147" s="9"/>
       <c r="G147" s="10">
         <f t="shared" si="2"/>
         <v>149900</v>
       </c>
-      <c r="H147" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I147" s="34" t="s">
+      <c r="H147" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" s="32" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="148" ht="15.6" spans="1:9">
-      <c r="A148" s="21" t="s">
+      <c r="A148" s="20" t="s">
         <v>503</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="C148" s="20" t="s">
+      <c r="C148" s="19" t="s">
         <v>505</v>
       </c>
       <c r="D148" s="8">
@@ -7622,21 +7561,21 @@
         <f t="shared" si="2"/>
         <v>910</v>
       </c>
-      <c r="H148" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I148" s="34" t="s">
+      <c r="H148" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" s="32" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="149" ht="15.6" spans="1:9">
-      <c r="A149" s="21" t="s">
+      <c r="A149" s="20" t="s">
         <v>508</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="C149" s="20" t="s">
+      <c r="C149" s="19" t="s">
         <v>510</v>
       </c>
       <c r="D149" s="8">
@@ -7652,21 +7591,21 @@
         <f t="shared" si="2"/>
         <v>1650</v>
       </c>
-      <c r="H149" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I149" s="34" t="s">
+      <c r="H149" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I149" s="32" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="150" ht="15.6" spans="1:9">
-      <c r="A150" s="19" t="s">
+      <c r="A150" s="18" t="s">
         <v>512</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C150" s="20" t="s">
+      <c r="C150" s="19" t="s">
         <v>514</v>
       </c>
       <c r="D150" s="8">
@@ -7675,7 +7614,7 @@
       <c r="E150" s="8">
         <v>18.9</v>
       </c>
-      <c r="F150" s="16"/>
+      <c r="F150" s="9"/>
       <c r="G150" s="10">
         <f t="shared" si="2"/>
         <v>1890</v>
@@ -7683,18 +7622,18 @@
       <c r="H150" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I150" s="34" t="s">
+      <c r="I150" s="32" t="s">
         <v>515</v>
       </c>
     </row>
     <row r="151" ht="15.6" spans="1:9">
-      <c r="A151" s="19" t="s">
+      <c r="A151" s="18" t="s">
         <v>516</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C151" s="20" t="s">
+      <c r="C151" s="19" t="s">
         <v>517</v>
       </c>
       <c r="D151" s="8">
@@ -7703,7 +7642,7 @@
       <c r="E151" s="8">
         <v>30</v>
       </c>
-      <c r="F151" s="16"/>
+      <c r="F151" s="9"/>
       <c r="G151" s="10">
         <f t="shared" si="2"/>
         <v>3000</v>
@@ -7711,18 +7650,18 @@
       <c r="H151" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I151" s="34" t="s">
+      <c r="I151" s="32" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="152" ht="15.6" spans="1:9">
-      <c r="A152" s="19" t="s">
+      <c r="A152" s="18" t="s">
         <v>519</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C152" s="20" t="s">
+      <c r="C152" s="19" t="s">
         <v>520</v>
       </c>
       <c r="D152" s="8">
@@ -7731,7 +7670,7 @@
       <c r="E152" s="8">
         <v>36</v>
       </c>
-      <c r="F152" s="16"/>
+      <c r="F152" s="9"/>
       <c r="G152" s="10">
         <f t="shared" si="2"/>
         <v>3600</v>
@@ -7739,18 +7678,18 @@
       <c r="H152" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I152" s="34" t="s">
+      <c r="I152" s="32" t="s">
         <v>521</v>
       </c>
     </row>
     <row r="153" ht="15.6" spans="1:9">
-      <c r="A153" s="19" t="s">
+      <c r="A153" s="18" t="s">
         <v>522</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C153" s="20" t="s">
+      <c r="C153" s="19" t="s">
         <v>523</v>
       </c>
       <c r="D153" s="8">
@@ -7759,7 +7698,7 @@
       <c r="E153" s="8">
         <v>35</v>
       </c>
-      <c r="F153" s="16"/>
+      <c r="F153" s="9"/>
       <c r="G153" s="10">
         <f t="shared" si="2"/>
         <v>3500</v>
@@ -7767,18 +7706,18 @@
       <c r="H153" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I153" s="34" t="s">
+      <c r="I153" s="32" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="154" ht="15.6" spans="1:9">
-      <c r="A154" s="19" t="s">
+      <c r="A154" s="18" t="s">
         <v>525</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C154" s="20" t="s">
+      <c r="C154" s="19" t="s">
         <v>526</v>
       </c>
       <c r="D154" s="8">
@@ -7787,7 +7726,7 @@
       <c r="E154" s="8">
         <v>35</v>
       </c>
-      <c r="F154" s="16"/>
+      <c r="F154" s="9"/>
       <c r="G154" s="10">
         <f t="shared" si="2"/>
         <v>3500</v>
@@ -7795,18 +7734,18 @@
       <c r="H154" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I154" s="34" t="s">
+      <c r="I154" s="32" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="155" ht="15.6" spans="1:9">
-      <c r="A155" s="19" t="s">
+      <c r="A155" s="18" t="s">
         <v>528</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C155" s="20" t="s">
+      <c r="C155" s="19" t="s">
         <v>529</v>
       </c>
       <c r="D155" s="8">
@@ -7815,7 +7754,7 @@
       <c r="E155" s="8">
         <v>40</v>
       </c>
-      <c r="F155" s="16"/>
+      <c r="F155" s="9"/>
       <c r="G155" s="10">
         <f t="shared" si="2"/>
         <v>4000</v>
@@ -7823,18 +7762,18 @@
       <c r="H155" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I155" s="34" t="s">
+      <c r="I155" s="32" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="156" ht="15.6" spans="1:9">
-      <c r="A156" s="19" t="s">
+      <c r="A156" s="18" t="s">
         <v>531</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C156" s="20" t="s">
+      <c r="C156" s="19" t="s">
         <v>532</v>
       </c>
       <c r="D156" s="8">
@@ -7843,7 +7782,7 @@
       <c r="E156" s="8">
         <v>50</v>
       </c>
-      <c r="F156" s="16"/>
+      <c r="F156" s="9"/>
       <c r="G156" s="10">
         <f t="shared" si="2"/>
         <v>5000</v>
@@ -7851,18 +7790,18 @@
       <c r="H156" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I156" s="34" t="s">
+      <c r="I156" s="32" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="157" ht="15.6" spans="1:9">
-      <c r="A157" s="19" t="s">
+      <c r="A157" s="18" t="s">
         <v>534</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="C157" s="20" t="s">
+      <c r="C157" s="19" t="s">
         <v>535</v>
       </c>
       <c r="D157" s="8">
@@ -7871,26 +7810,26 @@
       <c r="E157" s="8">
         <v>15</v>
       </c>
-      <c r="F157" s="16"/>
+      <c r="F157" s="9"/>
       <c r="G157" s="10">
         <f t="shared" si="2"/>
         <v>1500</v>
       </c>
-      <c r="H157" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I157" s="34" t="s">
+      <c r="H157" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I157" s="32" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="158" ht="15.6" spans="1:9">
-      <c r="A158" s="21" t="s">
+      <c r="A158" s="20" t="s">
         <v>537</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="C158" s="20" t="s">
+      <c r="C158" s="19" t="s">
         <v>539</v>
       </c>
       <c r="D158" s="8">
@@ -7906,21 +7845,21 @@
         <f t="shared" si="2"/>
         <v>790</v>
       </c>
-      <c r="H158" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I158" s="34" t="s">
+      <c r="H158" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I158" s="32" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="159" ht="15.6" spans="1:9">
-      <c r="A159" s="21" t="s">
+      <c r="A159" s="20" t="s">
         <v>542</v>
       </c>
-      <c r="B159" s="17" t="s">
+      <c r="B159" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="C159" s="20" t="s">
+      <c r="C159" s="19" t="s">
         <v>544</v>
       </c>
       <c r="D159" s="8">
@@ -7929,26 +7868,26 @@
       <c r="E159" s="8">
         <v>299</v>
       </c>
-      <c r="F159" s="16"/>
+      <c r="F159" s="9"/>
       <c r="G159" s="10">
         <f t="shared" si="2"/>
         <v>29900</v>
       </c>
-      <c r="H159" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I159" s="34" t="s">
+      <c r="H159" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" s="32" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="160" ht="15.6" spans="1:9">
-      <c r="A160" s="21" t="s">
+      <c r="A160" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="B160" s="17" t="s">
+      <c r="B160" s="16" t="s">
         <v>543</v>
       </c>
-      <c r="C160" s="20" t="s">
+      <c r="C160" s="19" t="s">
         <v>547</v>
       </c>
       <c r="D160" s="8">
@@ -7957,15 +7896,15 @@
       <c r="E160" s="8">
         <v>229</v>
       </c>
-      <c r="F160" s="16"/>
+      <c r="F160" s="9"/>
       <c r="G160" s="10">
         <f t="shared" si="2"/>
         <v>22900</v>
       </c>
-      <c r="H160" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I160" s="34" t="s">
+      <c r="H160" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="32" t="s">
         <v>548</v>
       </c>
     </row>
@@ -7985,7 +7924,7 @@
       <c r="E161" s="8">
         <v>299</v>
       </c>
-      <c r="F161" s="16"/>
+      <c r="F161" s="9"/>
       <c r="G161" s="10">
         <f t="shared" si="2"/>
         <v>29900</v>
@@ -7993,7 +7932,7 @@
       <c r="H161" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I161" s="34" t="s">
+      <c r="I161" s="32" t="s">
         <v>552</v>
       </c>
     </row>
@@ -8013,7 +7952,7 @@
       <c r="E162" s="8">
         <v>329</v>
       </c>
-      <c r="F162" s="16"/>
+      <c r="F162" s="9"/>
       <c r="G162" s="10">
         <f t="shared" si="2"/>
         <v>32900</v>
@@ -8021,18 +7960,18 @@
       <c r="H162" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I162" s="34" t="s">
+      <c r="I162" s="32" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="163" ht="15.6" spans="1:9">
-      <c r="A163" s="21" t="s">
+      <c r="A163" s="20" t="s">
         <v>556</v>
       </c>
       <c r="B163" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C163" s="20" t="s">
+      <c r="C163" s="19" t="s">
         <v>557</v>
       </c>
       <c r="D163" s="8">
@@ -8041,26 +7980,26 @@
       <c r="E163" s="8">
         <v>156</v>
       </c>
-      <c r="F163" s="16"/>
+      <c r="F163" s="9"/>
       <c r="G163" s="10">
         <f t="shared" si="2"/>
         <v>15600</v>
       </c>
-      <c r="H163" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I163" s="34" t="s">
+      <c r="H163" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I163" s="32" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="164" ht="15.6" spans="1:9">
-      <c r="A164" s="21" t="s">
+      <c r="A164" s="20" t="s">
         <v>559</v>
       </c>
       <c r="B164" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C164" s="20" t="s">
+      <c r="C164" s="19" t="s">
         <v>560</v>
       </c>
       <c r="D164" s="8">
@@ -8069,26 +8008,26 @@
       <c r="E164" s="8">
         <v>156</v>
       </c>
-      <c r="F164" s="16"/>
+      <c r="F164" s="9"/>
       <c r="G164" s="10">
         <f t="shared" si="2"/>
         <v>15600</v>
       </c>
-      <c r="H164" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I164" s="34" t="s">
+      <c r="H164" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I164" s="32" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="165" ht="15.6" spans="1:9">
-      <c r="A165" s="21" t="s">
+      <c r="A165" s="20" t="s">
         <v>562</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>550</v>
       </c>
-      <c r="C165" s="20" t="s">
+      <c r="C165" s="19" t="s">
         <v>563</v>
       </c>
       <c r="D165" s="8">
@@ -8097,15 +8036,15 @@
       <c r="E165" s="8">
         <v>166</v>
       </c>
-      <c r="F165" s="16"/>
+      <c r="F165" s="9"/>
       <c r="G165" s="10">
         <f t="shared" si="2"/>
         <v>16600</v>
       </c>
-      <c r="H165" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I165" s="34" t="s">
+      <c r="H165" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I165" s="32" t="s">
         <v>564</v>
       </c>
     </row>
@@ -8125,7 +8064,7 @@
       <c r="E166" s="8">
         <v>189</v>
       </c>
-      <c r="F166" s="16"/>
+      <c r="F166" s="9"/>
       <c r="G166" s="10">
         <f t="shared" si="2"/>
         <v>18900</v>
@@ -8133,211 +8072,208 @@
       <c r="H166" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I166" s="34" t="s">
+      <c r="I166" s="32" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="167" ht="15.6" spans="1:9">
-      <c r="A167" s="5" t="s">
+      <c r="A167" s="37" t="s">
         <v>569</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="C167" s="39" t="s">
         <v>570</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="D167" s="40">
+        <v>159</v>
+      </c>
+      <c r="E167" s="40">
+        <v>99</v>
+      </c>
+      <c r="F167" s="41" t="s">
         <v>571</v>
       </c>
-      <c r="D167" s="8">
-        <v>1899</v>
-      </c>
-      <c r="E167" s="8">
-        <v>1399</v>
-      </c>
-      <c r="F167" s="16"/>
       <c r="G167" s="10">
-        <f t="shared" si="2"/>
-        <v>139900</v>
+        <v>9900</v>
       </c>
       <c r="H167" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I167" s="34" t="s">
         <v>572</v>
       </c>
+      <c r="I167" s="32" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="168" ht="15.6" spans="1:9">
-      <c r="A168" s="5" t="s">
-        <v>573</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="C168" s="7" t="s">
+      <c r="A168" s="37" t="s">
         <v>574</v>
       </c>
-      <c r="D168" s="8">
-        <v>1299</v>
-      </c>
-      <c r="E168" s="8">
-        <v>879</v>
-      </c>
-      <c r="F168" s="16"/>
+      <c r="B168" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="C168" s="39" t="s">
+        <v>575</v>
+      </c>
+      <c r="D168" s="40">
+        <v>449</v>
+      </c>
+      <c r="E168" s="40">
+        <v>299</v>
+      </c>
+      <c r="F168" s="41" t="s">
+        <v>237</v>
+      </c>
       <c r="G168" s="10">
-        <f t="shared" si="2"/>
-        <v>87900</v>
-      </c>
-      <c r="H168" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I168" s="34" t="s">
-        <v>575</v>
+        <v>29900</v>
+      </c>
+      <c r="H168" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="I168" s="32" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="169" ht="15.6" spans="1:9">
-      <c r="A169" s="5" t="s">
-        <v>576</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="C169" s="7" t="s">
+      <c r="A169" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="D169" s="8">
-        <v>1499</v>
-      </c>
-      <c r="E169" s="8">
-        <v>1049</v>
-      </c>
-      <c r="F169" s="16"/>
+      <c r="B169" s="38" t="s">
+        <v>566</v>
+      </c>
+      <c r="C169" s="39" t="s">
+        <v>578</v>
+      </c>
+      <c r="D169" s="40">
+        <v>239</v>
+      </c>
+      <c r="E169" s="40">
+        <v>129</v>
+      </c>
+      <c r="F169" s="41" t="s">
+        <v>579</v>
+      </c>
       <c r="G169" s="10">
-        <f t="shared" si="2"/>
-        <v>104900</v>
-      </c>
-      <c r="H169" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I169" s="34" t="s">
-        <v>578</v>
+        <v>12900</v>
+      </c>
+      <c r="H169" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="I169" s="32" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="170" ht="15.6" spans="1:9">
       <c r="A170" s="5" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D170" s="8">
-        <v>499</v>
+        <v>1899</v>
       </c>
       <c r="E170" s="8">
-        <v>499</v>
-      </c>
-      <c r="F170" s="9" t="s">
-        <v>582</v>
-      </c>
+        <v>1399</v>
+      </c>
+      <c r="F170" s="9"/>
       <c r="G170" s="10">
-        <f t="shared" si="2"/>
-        <v>49900</v>
-      </c>
-      <c r="H170" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I170" s="34" t="s">
-        <v>583</v>
+        <f>E170*100</f>
+        <v>139900</v>
+      </c>
+      <c r="H170" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I170" s="32" t="s">
+        <v>584</v>
       </c>
     </row>
     <row r="171" ht="15.6" spans="1:9">
       <c r="A171" s="5" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C171" s="7" t="s">
         <v>586</v>
       </c>
       <c r="D171" s="8">
-        <v>699</v>
+        <v>1299</v>
       </c>
       <c r="E171" s="8">
-        <v>499</v>
-      </c>
-      <c r="F171" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="F171" s="9"/>
+      <c r="G171" s="10">
+        <f>E171*100</f>
+        <v>87900</v>
+      </c>
+      <c r="H171" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I171" s="32" t="s">
         <v>587</v>
-      </c>
-      <c r="G171" s="10">
-        <f t="shared" si="2"/>
-        <v>49900</v>
-      </c>
-      <c r="H171" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I171" s="34" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="172" ht="15.6" spans="1:9">
       <c r="A172" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C172" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="B172" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="C172" s="7" t="s">
+      <c r="D172" s="8">
+        <v>1499</v>
+      </c>
+      <c r="E172" s="8">
+        <v>1049</v>
+      </c>
+      <c r="F172" s="9"/>
+      <c r="G172" s="10">
+        <f>E172*100</f>
+        <v>104900</v>
+      </c>
+      <c r="H172" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I172" s="32" t="s">
         <v>590</v>
-      </c>
-      <c r="D172" s="8">
-        <v>299</v>
-      </c>
-      <c r="E172" s="8">
-        <v>269</v>
-      </c>
-      <c r="F172" s="9" t="s">
-        <v>591</v>
-      </c>
-      <c r="G172" s="10">
-        <f t="shared" si="2"/>
-        <v>26900</v>
-      </c>
-      <c r="H172" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I172" s="34" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="173" ht="15.6" spans="1:9">
       <c r="A173" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C173" s="7" t="s">
         <v>593</v>
       </c>
-      <c r="B173" s="6" t="s">
-        <v>585</v>
-      </c>
-      <c r="C173" s="7" t="s">
+      <c r="D173" s="8">
+        <v>499</v>
+      </c>
+      <c r="E173" s="8">
+        <v>499</v>
+      </c>
+      <c r="F173" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="D173" s="8">
-        <v>246</v>
-      </c>
-      <c r="E173" s="8">
-        <v>209</v>
-      </c>
-      <c r="F173" s="9" t="s">
-        <v>12</v>
-      </c>
       <c r="G173" s="10">
-        <f t="shared" si="2"/>
-        <v>20900</v>
-      </c>
-      <c r="H173" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I173" s="34" t="s">
+        <f>E173*100</f>
+        <v>49900</v>
+      </c>
+      <c r="H173" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I173" s="32" t="s">
         <v>595</v>
       </c>
     </row>
@@ -8346,151 +8282,154 @@
         <v>596</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D174" s="8">
-        <v>179</v>
+        <v>699</v>
       </c>
       <c r="E174" s="8">
-        <v>139</v>
+        <v>499</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>12</v>
+        <v>599</v>
       </c>
       <c r="G174" s="10">
-        <f t="shared" si="2"/>
-        <v>13900</v>
+        <f>E174*100</f>
+        <v>49900</v>
       </c>
       <c r="H174" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I174" s="34" t="s">
-        <v>598</v>
+      <c r="I174" s="32" t="s">
+        <v>600</v>
       </c>
     </row>
     <row r="175" ht="15.6" spans="1:9">
       <c r="A175" s="5" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D175" s="8">
-        <v>439</v>
+        <v>299</v>
       </c>
       <c r="E175" s="8">
-        <v>379</v>
+        <v>269</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>237</v>
+        <v>603</v>
       </c>
       <c r="G175" s="10">
-        <f t="shared" si="2"/>
-        <v>37900</v>
+        <f>E175*100</f>
+        <v>26900</v>
       </c>
       <c r="H175" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I175" s="34" t="s">
-        <v>601</v>
+      <c r="I175" s="32" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="176" ht="15.6" spans="1:9">
-      <c r="A176" s="41" t="s">
-        <v>602</v>
-      </c>
-      <c r="B176" s="42" t="s">
-        <v>566</v>
-      </c>
-      <c r="C176" s="43" t="s">
-        <v>603</v>
-      </c>
-      <c r="D176" s="44">
-        <v>159</v>
-      </c>
-      <c r="E176" s="44">
-        <v>99</v>
-      </c>
-      <c r="F176" s="45" t="s">
-        <v>604</v>
-      </c>
-      <c r="G176" s="46">
-        <v>9900</v>
-      </c>
-      <c r="H176" s="47" t="s">
+      <c r="A176" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="I176" s="48" t="s">
+      <c r="B176" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C176" s="7" t="s">
         <v>606</v>
       </c>
+      <c r="D176" s="8">
+        <v>246</v>
+      </c>
+      <c r="E176" s="8">
+        <v>209</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" s="10">
+        <f>E176*100</f>
+        <v>20900</v>
+      </c>
+      <c r="H176" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I176" s="32" t="s">
+        <v>607</v>
+      </c>
     </row>
     <row r="177" ht="15.6" spans="1:9">
-      <c r="A177" s="41" t="s">
-        <v>607</v>
-      </c>
-      <c r="B177" s="42" t="s">
-        <v>566</v>
-      </c>
-      <c r="C177" s="43" t="s">
+      <c r="A177" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="D177" s="44">
-        <v>449</v>
-      </c>
-      <c r="E177" s="44">
-        <v>299</v>
-      </c>
-      <c r="F177" s="45" t="s">
+      <c r="B177" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="D177" s="8">
+        <v>179</v>
+      </c>
+      <c r="E177" s="8">
+        <v>139</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" s="10">
+        <f>E177*100</f>
+        <v>13900</v>
+      </c>
+      <c r="H177" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I177" s="32" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="178" ht="15.6" spans="1:9">
+      <c r="A178" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="D178" s="8">
+        <v>439</v>
+      </c>
+      <c r="E178" s="8">
+        <v>379</v>
+      </c>
+      <c r="F178" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="G177" s="46">
-        <v>29900</v>
-      </c>
-      <c r="H177" s="47" t="s">
-        <v>605</v>
-      </c>
-      <c r="I177" s="48" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="178" ht="15.6" spans="1:9">
-      <c r="A178" s="41" t="s">
-        <v>610</v>
-      </c>
-      <c r="B178" s="42" t="s">
-        <v>566</v>
-      </c>
-      <c r="C178" s="43" t="s">
-        <v>611</v>
-      </c>
-      <c r="D178" s="44">
-        <v>239</v>
-      </c>
-      <c r="E178" s="44">
-        <v>129</v>
-      </c>
-      <c r="F178" s="45" t="s">
-        <v>612</v>
-      </c>
-      <c r="G178" s="46">
-        <v>12900</v>
-      </c>
-      <c r="H178" s="47" t="s">
-        <v>605</v>
-      </c>
-      <c r="I178" s="48" t="s">
+      <c r="G178" s="10">
+        <f>E178*100</f>
+        <v>37900</v>
+      </c>
+      <c r="H178" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I178" s="32" t="s">
         <v>613</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I175">
-    <sortCondition ref="B2:B175"/>
+  <sortState ref="A2:I178">
+    <sortCondition ref="B2"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="I133" r:id="rId1" display="https://m.media-amazon.com/images/I/61n-1Kr60BL.jpg"/>
@@ -8501,6 +8440,7 @@
     <hyperlink ref="I103" r:id="rId6" display="https://i.imghippo.com/files/Kpdo6122ks.webp" tooltip="https://i.imghippo.com/files/Kpdo6122ks.webp"/>
     <hyperlink ref="I97" r:id="rId7" display="https://ae01.alicdn.com/kf/S9dd8bc460e6c41fbab3b73d5912567efT.jpg"/>
     <hyperlink ref="I2" r:id="rId8" display="https://i.postimg.cc/pT41hXLR/acerpure.jpg" tooltip="https://i.postimg.cc/pT41hXLR/acerpure.jpg"/>
+    <hyperlink ref="I36" r:id="rId9" display="https://i.postimg.cc/3JrxhjSq/cor.png"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
